--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,18 @@
     <t>['57', '87']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['65', '79']</t>
+  </si>
+  <si>
+    <t>['13', '27', '76']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -700,9 +712,6 @@
     <t>['45+1', '49', '63']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['76']</t>
   </si>
   <si>
@@ -800,6 +809,12 @@
   </si>
   <si>
     <t>['2', '43']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1420,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1596,7 +1611,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1787,7 +1802,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1978,7 +1993,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2933,7 +2948,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3405,7 +3420,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4270,7 +4285,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4652,7 +4667,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4843,7 +4858,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4930,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -5034,7 +5049,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5225,7 +5240,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5607,7 +5622,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5798,7 +5813,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5888,7 +5903,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU25">
         <v>1.96</v>
@@ -5989,7 +6004,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6649,7 +6664,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6753,7 +6768,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7222,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7326,7 +7341,7 @@
         <v>136</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7416,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7607,7 +7622,7 @@
         <v>0.67</v>
       </c>
       <c r="AT34">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7708,7 +7723,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7798,7 +7813,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7899,7 +7914,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -7989,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8090,7 +8105,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8281,7 +8296,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8472,7 +8487,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8663,7 +8678,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8941,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT41">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9045,7 +9060,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9135,7 +9150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9236,7 +9251,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9323,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9427,7 +9442,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9514,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT44">
         <v>1.17</v>
@@ -9618,7 +9633,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9899,7 +9914,7 @@
         <v>0.83</v>
       </c>
       <c r="AT46">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10000,7 +10015,7 @@
         <v>144</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10278,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10469,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10573,7 +10588,7 @@
         <v>146</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10660,10 +10675,10 @@
         <v>1.6</v>
       </c>
       <c r="AS50">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT50">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10955,7 +10970,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11042,10 +11057,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11233,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT53">
         <v>0.67</v>
@@ -11337,7 +11352,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11424,7 +11439,7 @@
         <v>1.8</v>
       </c>
       <c r="AS54">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT54">
         <v>1.8</v>
@@ -11528,7 +11543,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11615,7 +11630,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT55">
         <v>1.5</v>
@@ -12000,7 +12015,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12292,7 +12307,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12382,7 +12397,7 @@
         <v>0.67</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12483,7 +12498,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12674,7 +12689,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12865,7 +12880,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -12952,7 +12967,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT62">
         <v>1.6</v>
@@ -13056,7 +13071,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13247,7 +13262,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13337,7 +13352,7 @@
         <v>0.67</v>
       </c>
       <c r="AT64">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU64">
         <v>1.04</v>
@@ -13438,7 +13453,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13629,7 +13644,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13716,10 +13731,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -13820,7 +13835,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14011,7 +14026,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14101,7 +14116,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU68">
         <v>1.4</v>
@@ -14393,7 +14408,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14480,10 +14495,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU70">
         <v>2.51</v>
@@ -14584,7 +14599,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14674,7 +14689,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14775,7 +14790,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14865,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>2.51</v>
@@ -15053,7 +15068,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT73">
         <v>0.67</v>
@@ -15157,7 +15172,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15247,7 +15262,7 @@
         <v>0.67</v>
       </c>
       <c r="AT74">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15348,7 +15363,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15539,7 +15554,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15730,7 +15745,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15921,7 +15936,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16011,7 +16026,7 @@
         <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU78">
         <v>2.11</v>
@@ -16199,7 +16214,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT79">
         <v>0.83</v>
@@ -16303,7 +16318,7 @@
         <v>172</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16581,10 +16596,10 @@
         <v>2.33</v>
       </c>
       <c r="AS81">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT81">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU81">
         <v>2.18</v>
@@ -16685,7 +16700,7 @@
         <v>174</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16775,7 +16790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT82">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16963,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT83">
         <v>0.67</v>
@@ -17067,7 +17082,7 @@
         <v>158</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17258,7 +17273,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17539,7 +17554,7 @@
         <v>0.67</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU86">
         <v>1.11</v>
@@ -17640,7 +17655,7 @@
         <v>117</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17730,7 +17745,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -17918,10 +17933,10 @@
         <v>2.33</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU88">
         <v>1.78</v>
@@ -18022,7 +18037,7 @@
         <v>178</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18300,7 +18315,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT90">
         <v>1.17</v>
@@ -18404,7 +18419,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18595,7 +18610,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18876,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU93">
         <v>2.28</v>
@@ -18977,7 +18992,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19067,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU94">
         <v>1.43</v>
@@ -19168,7 +19183,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19258,7 +19273,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU95">
         <v>1.65</v>
@@ -19446,7 +19461,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT96">
         <v>1.17</v>
@@ -19640,7 +19655,7 @@
         <v>0.83</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU97">
         <v>1.35</v>
@@ -19828,7 +19843,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20213,7 +20228,7 @@
         <v>0.67</v>
       </c>
       <c r="AT100">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU100">
         <v>1.76</v>
@@ -20401,7 +20416,7 @@
         <v>1.88</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20592,10 +20607,10 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU102">
         <v>1.83</v>
@@ -20783,7 +20798,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT103">
         <v>1.17</v>
@@ -20974,7 +20989,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT104">
         <v>0.67</v>
@@ -21356,10 +21371,10 @@
         <v>2.25</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT106">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU106">
         <v>1.65</v>
@@ -21460,7 +21475,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21547,7 +21562,7 @@
         <v>0.75</v>
       </c>
       <c r="AS107">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT107">
         <v>0.67</v>
@@ -21651,7 +21666,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -22033,7 +22048,7 @@
         <v>192</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22415,7 +22430,7 @@
         <v>194</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>12</v>
@@ -22505,7 +22520,7 @@
         <v>1.17</v>
       </c>
       <c r="AT112">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU112">
         <v>2.25</v>
@@ -22693,7 +22708,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT113">
         <v>0.67</v>
@@ -22884,7 +22899,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -22988,7 +23003,7 @@
         <v>197</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23075,7 +23090,7 @@
         <v>1.56</v>
       </c>
       <c r="AS115">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT115">
         <v>1.5</v>
@@ -23179,7 +23194,7 @@
         <v>198</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23648,7 +23663,7 @@
         <v>0</v>
       </c>
       <c r="AS118">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT118">
         <v>0</v>
@@ -23839,7 +23854,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT119">
         <v>1.8</v>
@@ -24134,7 +24149,7 @@
         <v>201</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24221,10 +24236,10 @@
         <v>2.2</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT121">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -24794,7 +24809,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>0.83</v>
@@ -24988,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU125">
         <v>2.08</v>
@@ -25176,10 +25191,10 @@
         <v>2.4</v>
       </c>
       <c r="AS126">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT126">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU126">
         <v>2.14</v>
@@ -25280,7 +25295,7 @@
         <v>206</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25422,6 +25437,1152 @@
       </c>
       <c r="BK127">
         <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6731162</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45139.79166666666</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>84</v>
+      </c>
+      <c r="H128" t="s">
+        <v>97</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>207</v>
+      </c>
+      <c r="P128" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>4</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
+        <v>3.6</v>
+      </c>
+      <c r="W128">
+        <v>1.47</v>
+      </c>
+      <c r="X128">
+        <v>2.53</v>
+      </c>
+      <c r="Y128">
+        <v>3.29</v>
+      </c>
+      <c r="Z128">
+        <v>1.3</v>
+      </c>
+      <c r="AA128">
+        <v>9</v>
+      </c>
+      <c r="AB128">
+        <v>1.05</v>
+      </c>
+      <c r="AC128">
+        <v>2.35</v>
+      </c>
+      <c r="AD128">
+        <v>3.2</v>
+      </c>
+      <c r="AE128">
+        <v>3.05</v>
+      </c>
+      <c r="AF128">
+        <v>1.06</v>
+      </c>
+      <c r="AG128">
+        <v>8.09</v>
+      </c>
+      <c r="AH128">
+        <v>1.42</v>
+      </c>
+      <c r="AI128">
+        <v>2.79</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>1.81</v>
+      </c>
+      <c r="AL128">
+        <v>1.93</v>
+      </c>
+      <c r="AM128">
+        <v>1.75</v>
+      </c>
+      <c r="AN128">
+        <v>1.3</v>
+      </c>
+      <c r="AO128">
+        <v>1.4</v>
+      </c>
+      <c r="AP128">
+        <v>1.55</v>
+      </c>
+      <c r="AQ128">
+        <v>1.83</v>
+      </c>
+      <c r="AR128">
+        <v>1.67</v>
+      </c>
+      <c r="AS128">
+        <v>1.71</v>
+      </c>
+      <c r="AT128">
+        <v>1.57</v>
+      </c>
+      <c r="AU128">
+        <v>1.76</v>
+      </c>
+      <c r="AV128">
+        <v>1.46</v>
+      </c>
+      <c r="AW128">
+        <v>3.22</v>
+      </c>
+      <c r="AX128">
+        <v>1.43</v>
+      </c>
+      <c r="AY128">
+        <v>6</v>
+      </c>
+      <c r="AZ128">
+        <v>3.1</v>
+      </c>
+      <c r="BA128">
+        <v>1.17</v>
+      </c>
+      <c r="BB128">
+        <v>1.36</v>
+      </c>
+      <c r="BC128">
+        <v>1.66</v>
+      </c>
+      <c r="BD128">
+        <v>2.02</v>
+      </c>
+      <c r="BE128">
+        <v>2.48</v>
+      </c>
+      <c r="BF128">
+        <v>5</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>8</v>
+      </c>
+      <c r="BI128">
+        <v>3</v>
+      </c>
+      <c r="BJ128">
+        <v>13</v>
+      </c>
+      <c r="BK128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>6731161</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45139.875</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" t="s">
+        <v>96</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>208</v>
+      </c>
+      <c r="P129" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q129">
+        <v>5</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>8</v>
+      </c>
+      <c r="T129">
+        <v>2.1</v>
+      </c>
+      <c r="U129">
+        <v>2.25</v>
+      </c>
+      <c r="V129">
+        <v>6.5</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>2.75</v>
+      </c>
+      <c r="Y129">
+        <v>2.75</v>
+      </c>
+      <c r="Z129">
+        <v>1.4</v>
+      </c>
+      <c r="AA129">
+        <v>8</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>1.62</v>
+      </c>
+      <c r="AD129">
+        <v>4</v>
+      </c>
+      <c r="AE129">
+        <v>5.05</v>
+      </c>
+      <c r="AF129">
+        <v>1.04</v>
+      </c>
+      <c r="AG129">
+        <v>10.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.3</v>
+      </c>
+      <c r="AI129">
+        <v>3.5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.93</v>
+      </c>
+      <c r="AK129">
+        <v>1.83</v>
+      </c>
+      <c r="AL129">
+        <v>2.05</v>
+      </c>
+      <c r="AM129">
+        <v>1.7</v>
+      </c>
+      <c r="AN129">
+        <v>1.12</v>
+      </c>
+      <c r="AO129">
+        <v>1.25</v>
+      </c>
+      <c r="AP129">
+        <v>2.6</v>
+      </c>
+      <c r="AQ129">
+        <v>1.67</v>
+      </c>
+      <c r="AR129">
+        <v>2</v>
+      </c>
+      <c r="AS129">
+        <v>1.86</v>
+      </c>
+      <c r="AT129">
+        <v>1.71</v>
+      </c>
+      <c r="AU129">
+        <v>1.95</v>
+      </c>
+      <c r="AV129">
+        <v>1.45</v>
+      </c>
+      <c r="AW129">
+        <v>3.4</v>
+      </c>
+      <c r="AX129">
+        <v>1.26</v>
+      </c>
+      <c r="AY129">
+        <v>11.25</v>
+      </c>
+      <c r="AZ129">
+        <v>4.75</v>
+      </c>
+      <c r="BA129">
+        <v>1.22</v>
+      </c>
+      <c r="BB129">
+        <v>1.44</v>
+      </c>
+      <c r="BC129">
+        <v>1.78</v>
+      </c>
+      <c r="BD129">
+        <v>2.2</v>
+      </c>
+      <c r="BE129">
+        <v>2.98</v>
+      </c>
+      <c r="BF129">
+        <v>10</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>7</v>
+      </c>
+      <c r="BI129">
+        <v>1</v>
+      </c>
+      <c r="BJ129">
+        <v>17</v>
+      </c>
+      <c r="BK129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>6731160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45139.875</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>91</v>
+      </c>
+      <c r="H130" t="s">
+        <v>98</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>209</v>
+      </c>
+      <c r="P130" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q130">
+        <v>15</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>18</v>
+      </c>
+      <c r="T130">
+        <v>2.4</v>
+      </c>
+      <c r="U130">
+        <v>2.2</v>
+      </c>
+      <c r="V130">
+        <v>4.75</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>2.75</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>8</v>
+      </c>
+      <c r="AB130">
+        <v>1.08</v>
+      </c>
+      <c r="AC130">
+        <v>1.65</v>
+      </c>
+      <c r="AD130">
+        <v>3.55</v>
+      </c>
+      <c r="AE130">
+        <v>5.65</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
+        <v>11</v>
+      </c>
+      <c r="AH130">
+        <v>1.3</v>
+      </c>
+      <c r="AI130">
+        <v>3.4</v>
+      </c>
+      <c r="AJ130">
+        <v>1.93</v>
+      </c>
+      <c r="AK130">
+        <v>1.83</v>
+      </c>
+      <c r="AL130">
+        <v>1.8</v>
+      </c>
+      <c r="AM130">
+        <v>1.95</v>
+      </c>
+      <c r="AN130">
+        <v>1.22</v>
+      </c>
+      <c r="AO130">
+        <v>1.22</v>
+      </c>
+      <c r="AP130">
+        <v>2</v>
+      </c>
+      <c r="AQ130">
+        <v>2</v>
+      </c>
+      <c r="AR130">
+        <v>2.17</v>
+      </c>
+      <c r="AS130">
+        <v>2.14</v>
+      </c>
+      <c r="AT130">
+        <v>1.86</v>
+      </c>
+      <c r="AU130">
+        <v>2.09</v>
+      </c>
+      <c r="AV130">
+        <v>1.33</v>
+      </c>
+      <c r="AW130">
+        <v>3.42</v>
+      </c>
+      <c r="AX130">
+        <v>1.3</v>
+      </c>
+      <c r="AY130">
+        <v>6.5</v>
+      </c>
+      <c r="AZ130">
+        <v>3.95</v>
+      </c>
+      <c r="BA130">
+        <v>1.24</v>
+      </c>
+      <c r="BB130">
+        <v>1.53</v>
+      </c>
+      <c r="BC130">
+        <v>1.85</v>
+      </c>
+      <c r="BD130">
+        <v>2.28</v>
+      </c>
+      <c r="BE130">
+        <v>3.14</v>
+      </c>
+      <c r="BF130">
+        <v>9</v>
+      </c>
+      <c r="BG130">
+        <v>4</v>
+      </c>
+      <c r="BH130">
+        <v>9</v>
+      </c>
+      <c r="BI130">
+        <v>4</v>
+      </c>
+      <c r="BJ130">
+        <v>18</v>
+      </c>
+      <c r="BK130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>6731157</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45140.875</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>102</v>
+      </c>
+      <c r="H131" t="s">
+        <v>100</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>117</v>
+      </c>
+      <c r="P131" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>7</v>
+      </c>
+      <c r="T131">
+        <v>3.6</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>3.4</v>
+      </c>
+      <c r="W131">
+        <v>1.53</v>
+      </c>
+      <c r="X131">
+        <v>2.38</v>
+      </c>
+      <c r="Y131">
+        <v>3.5</v>
+      </c>
+      <c r="Z131">
+        <v>1.29</v>
+      </c>
+      <c r="AA131">
+        <v>11</v>
+      </c>
+      <c r="AB131">
+        <v>1.05</v>
+      </c>
+      <c r="AC131">
+        <v>2.46</v>
+      </c>
+      <c r="AD131">
+        <v>2.93</v>
+      </c>
+      <c r="AE131">
+        <v>2.73</v>
+      </c>
+      <c r="AF131">
+        <v>1.08</v>
+      </c>
+      <c r="AG131">
+        <v>7.29</v>
+      </c>
+      <c r="AH131">
+        <v>1.5</v>
+      </c>
+      <c r="AI131">
+        <v>2.6</v>
+      </c>
+      <c r="AJ131">
+        <v>2.36</v>
+      </c>
+      <c r="AK131">
+        <v>1.52</v>
+      </c>
+      <c r="AL131">
+        <v>2</v>
+      </c>
+      <c r="AM131">
+        <v>1.75</v>
+      </c>
+      <c r="AN131">
+        <v>1.47</v>
+      </c>
+      <c r="AO131">
+        <v>1.3</v>
+      </c>
+      <c r="AP131">
+        <v>1.45</v>
+      </c>
+      <c r="AQ131">
+        <v>1.83</v>
+      </c>
+      <c r="AR131">
+        <v>2.17</v>
+      </c>
+      <c r="AS131">
+        <v>1.71</v>
+      </c>
+      <c r="AT131">
+        <v>2</v>
+      </c>
+      <c r="AU131">
+        <v>1.75</v>
+      </c>
+      <c r="AV131">
+        <v>1.3</v>
+      </c>
+      <c r="AW131">
+        <v>3.05</v>
+      </c>
+      <c r="AX131">
+        <v>2.01</v>
+      </c>
+      <c r="AY131">
+        <v>8.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.09</v>
+      </c>
+      <c r="BA131">
+        <v>1.35</v>
+      </c>
+      <c r="BB131">
+        <v>1.64</v>
+      </c>
+      <c r="BC131">
+        <v>2.06</v>
+      </c>
+      <c r="BD131">
+        <v>2.71</v>
+      </c>
+      <c r="BE131">
+        <v>3.8</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>6</v>
+      </c>
+      <c r="BI131">
+        <v>4</v>
+      </c>
+      <c r="BJ131">
+        <v>10</v>
+      </c>
+      <c r="BK131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>6731158</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45140.875</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>92</v>
+      </c>
+      <c r="H132" t="s">
+        <v>101</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>210</v>
+      </c>
+      <c r="P132" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q132">
+        <v>5</v>
+      </c>
+      <c r="R132">
+        <v>10</v>
+      </c>
+      <c r="S132">
+        <v>15</v>
+      </c>
+      <c r="T132">
+        <v>3.6</v>
+      </c>
+      <c r="U132">
+        <v>2.1</v>
+      </c>
+      <c r="V132">
+        <v>3.1</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>2.63</v>
+      </c>
+      <c r="Y132">
+        <v>3</v>
+      </c>
+      <c r="Z132">
+        <v>1.36</v>
+      </c>
+      <c r="AA132">
+        <v>9</v>
+      </c>
+      <c r="AB132">
+        <v>1.07</v>
+      </c>
+      <c r="AC132">
+        <v>2.62</v>
+      </c>
+      <c r="AD132">
+        <v>3.11</v>
+      </c>
+      <c r="AE132">
+        <v>2.43</v>
+      </c>
+      <c r="AF132">
+        <v>1.05</v>
+      </c>
+      <c r="AG132">
+        <v>10</v>
+      </c>
+      <c r="AH132">
+        <v>1.33</v>
+      </c>
+      <c r="AI132">
+        <v>3.23</v>
+      </c>
+      <c r="AJ132">
+        <v>2.04</v>
+      </c>
+      <c r="AK132">
+        <v>1.78</v>
+      </c>
+      <c r="AL132">
+        <v>1.8</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>1.6</v>
+      </c>
+      <c r="AO132">
+        <v>1.25</v>
+      </c>
+      <c r="AP132">
+        <v>1.4</v>
+      </c>
+      <c r="AQ132">
+        <v>1.33</v>
+      </c>
+      <c r="AR132">
+        <v>2</v>
+      </c>
+      <c r="AS132">
+        <v>1.57</v>
+      </c>
+      <c r="AT132">
+        <v>1.71</v>
+      </c>
+      <c r="AU132">
+        <v>1.67</v>
+      </c>
+      <c r="AV132">
+        <v>1.61</v>
+      </c>
+      <c r="AW132">
+        <v>3.28</v>
+      </c>
+      <c r="AX132">
+        <v>2.02</v>
+      </c>
+      <c r="AY132">
+        <v>8.5</v>
+      </c>
+      <c r="AZ132">
+        <v>2.08</v>
+      </c>
+      <c r="BA132">
+        <v>1.36</v>
+      </c>
+      <c r="BB132">
+        <v>1.68</v>
+      </c>
+      <c r="BC132">
+        <v>2.12</v>
+      </c>
+      <c r="BD132">
+        <v>2.79</v>
+      </c>
+      <c r="BE132">
+        <v>4</v>
+      </c>
+      <c r="BF132">
+        <v>10</v>
+      </c>
+      <c r="BG132">
+        <v>2</v>
+      </c>
+      <c r="BH132">
+        <v>4</v>
+      </c>
+      <c r="BI132">
+        <v>7</v>
+      </c>
+      <c r="BJ132">
+        <v>14</v>
+      </c>
+      <c r="BK132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>6731159</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45140.89583333334</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>110</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>117</v>
+      </c>
+      <c r="P133" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q133">
+        <v>9</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>14</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
+        <v>2.05</v>
+      </c>
+      <c r="V133">
+        <v>3.5</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>2.63</v>
+      </c>
+      <c r="Y133">
+        <v>3.25</v>
+      </c>
+      <c r="Z133">
+        <v>1.33</v>
+      </c>
+      <c r="AA133">
+        <v>10</v>
+      </c>
+      <c r="AB133">
+        <v>1.06</v>
+      </c>
+      <c r="AC133">
+        <v>2.41</v>
+      </c>
+      <c r="AD133">
+        <v>3.07</v>
+      </c>
+      <c r="AE133">
+        <v>2.67</v>
+      </c>
+      <c r="AF133">
+        <v>1.06</v>
+      </c>
+      <c r="AG133">
+        <v>8.6</v>
+      </c>
+      <c r="AH133">
+        <v>1.39</v>
+      </c>
+      <c r="AI133">
+        <v>2.91</v>
+      </c>
+      <c r="AJ133">
+        <v>2.15</v>
+      </c>
+      <c r="AK133">
+        <v>1.7</v>
+      </c>
+      <c r="AL133">
+        <v>1.91</v>
+      </c>
+      <c r="AM133">
+        <v>1.91</v>
+      </c>
+      <c r="AN133">
+        <v>1.42</v>
+      </c>
+      <c r="AO133">
+        <v>1.3</v>
+      </c>
+      <c r="AP133">
+        <v>1.53</v>
+      </c>
+      <c r="AQ133">
+        <v>1.8</v>
+      </c>
+      <c r="AR133">
+        <v>2.5</v>
+      </c>
+      <c r="AS133">
+        <v>1.64</v>
+      </c>
+      <c r="AT133">
+        <v>2.57</v>
+      </c>
+      <c r="AU133">
+        <v>2.17</v>
+      </c>
+      <c r="AV133">
+        <v>1.69</v>
+      </c>
+      <c r="AW133">
+        <v>3.86</v>
+      </c>
+      <c r="AX133">
+        <v>1.79</v>
+      </c>
+      <c r="AY133">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ133">
+        <v>2.38</v>
+      </c>
+      <c r="BA133">
+        <v>1.15</v>
+      </c>
+      <c r="BB133">
+        <v>1.32</v>
+      </c>
+      <c r="BC133">
+        <v>1.59</v>
+      </c>
+      <c r="BD133">
+        <v>1.95</v>
+      </c>
+      <c r="BE133">
+        <v>2.51</v>
+      </c>
+      <c r="BF133">
+        <v>2</v>
+      </c>
+      <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
+        <v>5</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
+        <v>7</v>
+      </c>
+      <c r="BK133">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,12 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['34', '61', '83', '90+5']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -793,9 +799,6 @@
     <t>['23', '80']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -815,6 +818,9 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['87', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1426,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1611,7 +1617,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1802,7 +1808,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1993,7 +1999,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2948,7 +2954,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4285,7 +4291,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4667,7 +4673,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4858,7 +4864,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5049,7 +5055,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5240,7 +5246,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5622,7 +5628,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5813,7 +5819,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6004,7 +6010,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6768,7 +6774,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7341,7 +7347,7 @@
         <v>136</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7723,7 +7729,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7914,7 +7920,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8105,7 +8111,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8195,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8296,7 +8302,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8386,7 +8392,7 @@
         <v>0.67</v>
       </c>
       <c r="AT38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8487,7 +8493,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8577,7 +8583,7 @@
         <v>0.83</v>
       </c>
       <c r="AT39">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8678,7 +8684,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9060,7 +9066,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9251,7 +9257,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9442,7 +9448,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9633,7 +9639,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10105,7 +10111,7 @@
         <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10588,7 +10594,7 @@
         <v>146</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10866,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -10970,7 +10976,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11352,7 +11358,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11543,7 +11549,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11821,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>0.83</v>
@@ -12307,7 +12313,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12498,7 +12504,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12585,7 +12591,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12689,7 +12695,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12776,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT61">
         <v>0.67</v>
@@ -12880,7 +12886,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13071,7 +13077,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13262,7 +13268,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13453,7 +13459,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13644,7 +13650,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13835,7 +13841,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13922,10 +13928,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT67">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU67">
         <v>1.35</v>
@@ -14026,7 +14032,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14408,7 +14414,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14599,7 +14605,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14790,7 +14796,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15172,7 +15178,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15363,7 +15369,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15554,7 +15560,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15745,7 +15751,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15832,10 +15838,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT77">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15936,7 +15942,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16318,7 +16324,7 @@
         <v>172</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16700,7 +16706,7 @@
         <v>174</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17082,7 +17088,7 @@
         <v>158</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17172,7 +17178,7 @@
         <v>0.67</v>
       </c>
       <c r="AT84">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU84">
         <v>1.53</v>
@@ -17273,7 +17279,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17655,7 +17661,7 @@
         <v>117</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18037,7 +18043,7 @@
         <v>178</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18127,7 +18133,7 @@
         <v>0.83</v>
       </c>
       <c r="AT89">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU89">
         <v>2.04</v>
@@ -18419,7 +18425,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18509,7 +18515,7 @@
         <v>0.67</v>
       </c>
       <c r="AT91">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -18610,7 +18616,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18700,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -18992,7 +18998,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19183,7 +19189,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -21475,7 +21481,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21666,7 +21672,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -22048,7 +22054,7 @@
         <v>192</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22135,10 +22141,10 @@
         <v>2.5</v>
       </c>
       <c r="AS110">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT110">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22326,10 +22332,10 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU111">
         <v>1.48</v>
@@ -22430,7 +22436,7 @@
         <v>194</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>12</v>
@@ -23003,7 +23009,7 @@
         <v>197</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23194,7 +23200,7 @@
         <v>198</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23281,7 +23287,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>0.67</v>
@@ -23472,7 +23478,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -24149,7 +24155,7 @@
         <v>201</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24427,7 +24433,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT122">
         <v>0.83</v>
@@ -24618,7 +24624,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>0.67</v>
@@ -25295,7 +25301,7 @@
         <v>206</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25486,7 +25492,7 @@
         <v>207</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25868,7 +25874,7 @@
         <v>209</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>15</v>
@@ -26441,7 +26447,7 @@
         <v>117</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26583,6 +26589,388 @@
       </c>
       <c r="BK133">
         <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>6731156</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45141.875</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>109</v>
+      </c>
+      <c r="H134" t="s">
+        <v>108</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>6</v>
+      </c>
+      <c r="O134" t="s">
+        <v>211</v>
+      </c>
+      <c r="P134" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q134">
+        <v>5</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>3.1</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>3.75</v>
+      </c>
+      <c r="W134">
+        <v>1.5</v>
+      </c>
+      <c r="X134">
+        <v>2.5</v>
+      </c>
+      <c r="Y134">
+        <v>3.4</v>
+      </c>
+      <c r="Z134">
+        <v>1.3</v>
+      </c>
+      <c r="AA134">
+        <v>10</v>
+      </c>
+      <c r="AB134">
+        <v>1.06</v>
+      </c>
+      <c r="AC134">
+        <v>2.3</v>
+      </c>
+      <c r="AD134">
+        <v>2.9</v>
+      </c>
+      <c r="AE134">
+        <v>3</v>
+      </c>
+      <c r="AF134">
+        <v>1.07</v>
+      </c>
+      <c r="AG134">
+        <v>8.25</v>
+      </c>
+      <c r="AH134">
+        <v>1.42</v>
+      </c>
+      <c r="AI134">
+        <v>2.7</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>1.57</v>
+      </c>
+      <c r="AL134">
+        <v>1.95</v>
+      </c>
+      <c r="AM134">
+        <v>1.8</v>
+      </c>
+      <c r="AN134">
+        <v>1.36</v>
+      </c>
+      <c r="AO134">
+        <v>1.38</v>
+      </c>
+      <c r="AP134">
+        <v>1.57</v>
+      </c>
+      <c r="AQ134">
+        <v>1.67</v>
+      </c>
+      <c r="AR134">
+        <v>2.17</v>
+      </c>
+      <c r="AS134">
+        <v>1.86</v>
+      </c>
+      <c r="AT134">
+        <v>1.86</v>
+      </c>
+      <c r="AU134">
+        <v>1.87</v>
+      </c>
+      <c r="AV134">
+        <v>1.17</v>
+      </c>
+      <c r="AW134">
+        <v>3.04</v>
+      </c>
+      <c r="AX134">
+        <v>1.86</v>
+      </c>
+      <c r="AY134">
+        <v>5.5</v>
+      </c>
+      <c r="AZ134">
+        <v>2.2</v>
+      </c>
+      <c r="BA134">
+        <v>1.27</v>
+      </c>
+      <c r="BB134">
+        <v>1.51</v>
+      </c>
+      <c r="BC134">
+        <v>1.9</v>
+      </c>
+      <c r="BD134">
+        <v>2.46</v>
+      </c>
+      <c r="BE134">
+        <v>3.28</v>
+      </c>
+      <c r="BF134">
+        <v>8</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>3</v>
+      </c>
+      <c r="BJ134">
+        <v>12</v>
+      </c>
+      <c r="BK134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>6731163</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45141.875</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>104</v>
+      </c>
+      <c r="H135" t="s">
+        <v>99</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>212</v>
+      </c>
+      <c r="P135" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q135">
+        <v>8</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>12</v>
+      </c>
+      <c r="T135">
+        <v>1.67</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>9</v>
+      </c>
+      <c r="W135">
+        <v>1.25</v>
+      </c>
+      <c r="X135">
+        <v>3.75</v>
+      </c>
+      <c r="Y135">
+        <v>2.2</v>
+      </c>
+      <c r="Z135">
+        <v>1.62</v>
+      </c>
+      <c r="AA135">
+        <v>5</v>
+      </c>
+      <c r="AB135">
+        <v>1.17</v>
+      </c>
+      <c r="AC135">
+        <v>1.2</v>
+      </c>
+      <c r="AD135">
+        <v>5.75</v>
+      </c>
+      <c r="AE135">
+        <v>13</v>
+      </c>
+      <c r="AF135">
+        <v>1.02</v>
+      </c>
+      <c r="AG135">
+        <v>15</v>
+      </c>
+      <c r="AH135">
+        <v>1.15</v>
+      </c>
+      <c r="AI135">
+        <v>4.8</v>
+      </c>
+      <c r="AJ135">
+        <v>1.53</v>
+      </c>
+      <c r="AK135">
+        <v>2.33</v>
+      </c>
+      <c r="AL135">
+        <v>2.05</v>
+      </c>
+      <c r="AM135">
+        <v>1.7</v>
+      </c>
+      <c r="AN135">
+        <v>1.05</v>
+      </c>
+      <c r="AO135">
+        <v>1.12</v>
+      </c>
+      <c r="AP135">
+        <v>4.1</v>
+      </c>
+      <c r="AQ135">
+        <v>1.83</v>
+      </c>
+      <c r="AR135">
+        <v>2.33</v>
+      </c>
+      <c r="AS135">
+        <v>2</v>
+      </c>
+      <c r="AT135">
+        <v>2</v>
+      </c>
+      <c r="AU135">
+        <v>1.65</v>
+      </c>
+      <c r="AV135">
+        <v>1.46</v>
+      </c>
+      <c r="AW135">
+        <v>3.11</v>
+      </c>
+      <c r="AX135">
+        <v>1.18</v>
+      </c>
+      <c r="AY135">
+        <v>13</v>
+      </c>
+      <c r="AZ135">
+        <v>6.22</v>
+      </c>
+      <c r="BA135">
+        <v>1.2</v>
+      </c>
+      <c r="BB135">
+        <v>1.4</v>
+      </c>
+      <c r="BC135">
+        <v>1.72</v>
+      </c>
+      <c r="BD135">
+        <v>2.14</v>
+      </c>
+      <c r="BE135">
+        <v>2.79</v>
+      </c>
+      <c r="BF135">
+        <v>6</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>6</v>
+      </c>
+      <c r="BI135">
+        <v>4</v>
+      </c>
+      <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,15 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['86', '90+7']</t>
+  </si>
+  <si>
+    <t>['31', '67']</t>
+  </si>
+  <si>
+    <t>['70', '78']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -821,6 +830,9 @@
   </si>
   <si>
     <t>['87', '90+4']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1438,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1617,7 +1629,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1808,7 +1820,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1999,7 +2011,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2954,7 +2966,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4291,7 +4303,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4673,7 +4685,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4864,7 +4876,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5055,7 +5067,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5246,7 +5258,7 @@
         <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5628,7 +5640,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5819,7 +5831,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6010,7 +6022,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6774,7 +6786,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7243,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
         <v>1.71</v>
@@ -7347,7 +7359,7 @@
         <v>136</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7437,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7628,7 +7640,7 @@
         <v>0.67</v>
       </c>
       <c r="AT34">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7729,7 +7741,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7819,7 +7831,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7920,7 +7932,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8111,7 +8123,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8302,7 +8314,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8493,7 +8505,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8684,7 +8696,7 @@
         <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8962,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT41">
         <v>2.57</v>
@@ -9066,7 +9078,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9156,7 +9168,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9257,7 +9269,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9448,7 +9460,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9639,7 +9651,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10299,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10490,7 +10502,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10594,7 +10606,7 @@
         <v>146</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10681,7 +10693,7 @@
         <v>1.6</v>
       </c>
       <c r="AS50">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT50">
         <v>1.64</v>
@@ -10976,7 +10988,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11358,7 +11370,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11549,7 +11561,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11636,7 +11648,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT55">
         <v>1.5</v>
@@ -12021,7 +12033,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12313,7 +12325,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12403,7 +12415,7 @@
         <v>0.67</v>
       </c>
       <c r="AT59">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12504,7 +12516,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12695,7 +12707,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12886,7 +12898,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13077,7 +13089,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13268,7 +13280,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13358,7 +13370,7 @@
         <v>0.67</v>
       </c>
       <c r="AT64">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>1.04</v>
@@ -13459,7 +13471,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13650,7 +13662,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13737,10 +13749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -13841,7 +13853,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14032,7 +14044,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14414,7 +14426,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14501,7 +14513,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT70">
         <v>1.71</v>
@@ -14605,7 +14617,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14695,7 +14707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14796,7 +14808,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15178,7 +15190,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15369,7 +15381,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15560,7 +15572,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15751,7 +15763,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15942,7 +15954,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16032,7 +16044,7 @@
         <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>2.11</v>
@@ -16324,7 +16336,7 @@
         <v>172</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16605,7 +16617,7 @@
         <v>1.64</v>
       </c>
       <c r="AT81">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU81">
         <v>2.18</v>
@@ -16706,7 +16718,7 @@
         <v>174</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16984,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT83">
         <v>0.67</v>
@@ -17088,7 +17100,7 @@
         <v>158</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17279,7 +17291,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17661,7 +17673,7 @@
         <v>117</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18043,7 +18055,7 @@
         <v>178</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18321,7 +18333,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
         <v>1.17</v>
@@ -18425,7 +18437,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18616,7 +18628,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18897,7 +18909,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU93">
         <v>2.28</v>
@@ -18998,7 +19010,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19088,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU94">
         <v>1.43</v>
@@ -19189,7 +19201,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19279,7 +19291,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU95">
         <v>1.65</v>
@@ -19467,7 +19479,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT96">
         <v>1.17</v>
@@ -20422,7 +20434,7 @@
         <v>1.88</v>
       </c>
       <c r="AS101">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20616,7 +20628,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU102">
         <v>1.83</v>
@@ -20995,7 +21007,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
         <v>0.67</v>
@@ -21377,10 +21389,10 @@
         <v>2.25</v>
       </c>
       <c r="AS106">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT106">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU106">
         <v>1.65</v>
@@ -21481,7 +21493,7 @@
         <v>190</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21672,7 +21684,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -22436,7 +22448,7 @@
         <v>194</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>12</v>
@@ -22714,7 +22726,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>0.67</v>
@@ -22905,7 +22917,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -23009,7 +23021,7 @@
         <v>197</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23096,7 +23108,7 @@
         <v>1.56</v>
       </c>
       <c r="AS115">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT115">
         <v>1.5</v>
@@ -23200,7 +23212,7 @@
         <v>198</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23860,7 +23872,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT119">
         <v>1.8</v>
@@ -24155,7 +24167,7 @@
         <v>201</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24245,7 +24257,7 @@
         <v>1.71</v>
       </c>
       <c r="AT121">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -25200,7 +25212,7 @@
         <v>2.57</v>
       </c>
       <c r="AT126">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AU126">
         <v>2.14</v>
@@ -25301,7 +25313,7 @@
         <v>206</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25492,7 +25504,7 @@
         <v>207</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25579,10 +25591,10 @@
         <v>1.67</v>
       </c>
       <c r="AS128">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU128">
         <v>1.76</v>
@@ -25770,10 +25782,10 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT129">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU129">
         <v>1.95</v>
@@ -25874,7 +25886,7 @@
         <v>209</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>15</v>
@@ -25961,10 +25973,10 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT130">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU130">
         <v>2.09</v>
@@ -26447,7 +26459,7 @@
         <v>117</v>
       </c>
       <c r="P133" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26638,7 +26650,7 @@
         <v>211</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26971,6 +26983,579 @@
       </c>
       <c r="BK135">
         <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>6731170</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45146.79166666666</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>97</v>
+      </c>
+      <c r="H136" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>213</v>
+      </c>
+      <c r="P136" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>5</v>
+      </c>
+      <c r="T136">
+        <v>2.4</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>6</v>
+      </c>
+      <c r="W136">
+        <v>1.49</v>
+      </c>
+      <c r="X136">
+        <v>2.48</v>
+      </c>
+      <c r="Y136">
+        <v>3.29</v>
+      </c>
+      <c r="Z136">
+        <v>1.3</v>
+      </c>
+      <c r="AA136">
+        <v>9</v>
+      </c>
+      <c r="AB136">
+        <v>1.05</v>
+      </c>
+      <c r="AC136">
+        <v>1.85</v>
+      </c>
+      <c r="AD136">
+        <v>3.49</v>
+      </c>
+      <c r="AE136">
+        <v>4.84</v>
+      </c>
+      <c r="AF136">
+        <v>1.07</v>
+      </c>
+      <c r="AG136">
+        <v>7.77</v>
+      </c>
+      <c r="AH136">
+        <v>1.41</v>
+      </c>
+      <c r="AI136">
+        <v>2.82</v>
+      </c>
+      <c r="AJ136">
+        <v>2.2</v>
+      </c>
+      <c r="AK136">
+        <v>1.6</v>
+      </c>
+      <c r="AL136">
+        <v>2.13</v>
+      </c>
+      <c r="AM136">
+        <v>1.65</v>
+      </c>
+      <c r="AN136">
+        <v>1.14</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>2.15</v>
+      </c>
+      <c r="AQ136">
+        <v>1.57</v>
+      </c>
+      <c r="AR136">
+        <v>1.71</v>
+      </c>
+      <c r="AS136">
+        <v>1.75</v>
+      </c>
+      <c r="AT136">
+        <v>1.5</v>
+      </c>
+      <c r="AU136">
+        <v>2.19</v>
+      </c>
+      <c r="AV136">
+        <v>1.4</v>
+      </c>
+      <c r="AW136">
+        <v>3.59</v>
+      </c>
+      <c r="AX136">
+        <v>1.22</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>5.5</v>
+      </c>
+      <c r="BA136">
+        <v>1.23</v>
+      </c>
+      <c r="BB136">
+        <v>1.4</v>
+      </c>
+      <c r="BC136">
+        <v>1.75</v>
+      </c>
+      <c r="BD136">
+        <v>2.2</v>
+      </c>
+      <c r="BE136">
+        <v>2.9</v>
+      </c>
+      <c r="BF136">
+        <v>2</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>2</v>
+      </c>
+      <c r="BI136">
+        <v>2</v>
+      </c>
+      <c r="BJ136">
+        <v>4</v>
+      </c>
+      <c r="BK136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>6731168</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45146.875</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" t="s">
+        <v>91</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>214</v>
+      </c>
+      <c r="P137" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>7</v>
+      </c>
+      <c r="T137">
+        <v>1.62</v>
+      </c>
+      <c r="U137">
+        <v>2.6</v>
+      </c>
+      <c r="V137">
+        <v>9</v>
+      </c>
+      <c r="W137">
+        <v>1.28</v>
+      </c>
+      <c r="X137">
+        <v>3.3</v>
+      </c>
+      <c r="Y137">
+        <v>2.35</v>
+      </c>
+      <c r="Z137">
+        <v>1.52</v>
+      </c>
+      <c r="AA137">
+        <v>5.75</v>
+      </c>
+      <c r="AB137">
+        <v>1.13</v>
+      </c>
+      <c r="AC137">
+        <v>1.2</v>
+      </c>
+      <c r="AD137">
+        <v>7.12</v>
+      </c>
+      <c r="AE137">
+        <v>16.09</v>
+      </c>
+      <c r="AF137">
+        <v>1.03</v>
+      </c>
+      <c r="AG137">
+        <v>18.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.2</v>
+      </c>
+      <c r="AI137">
+        <v>4.58</v>
+      </c>
+      <c r="AJ137">
+        <v>1.57</v>
+      </c>
+      <c r="AK137">
+        <v>2.25</v>
+      </c>
+      <c r="AL137">
+        <v>2.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.62</v>
+      </c>
+      <c r="AN137">
+        <v>1.06</v>
+      </c>
+      <c r="AO137">
+        <v>1.13</v>
+      </c>
+      <c r="AP137">
+        <v>4</v>
+      </c>
+      <c r="AQ137">
+        <v>1.86</v>
+      </c>
+      <c r="AR137">
+        <v>2.14</v>
+      </c>
+      <c r="AS137">
+        <v>2</v>
+      </c>
+      <c r="AT137">
+        <v>1.88</v>
+      </c>
+      <c r="AU137">
+        <v>1.29</v>
+      </c>
+      <c r="AV137">
+        <v>1.22</v>
+      </c>
+      <c r="AW137">
+        <v>2.51</v>
+      </c>
+      <c r="AX137">
+        <v>1.11</v>
+      </c>
+      <c r="AY137">
+        <v>11</v>
+      </c>
+      <c r="AZ137">
+        <v>9</v>
+      </c>
+      <c r="BA137">
+        <v>1.06</v>
+      </c>
+      <c r="BB137">
+        <v>1.43</v>
+      </c>
+      <c r="BC137">
+        <v>1.7</v>
+      </c>
+      <c r="BD137">
+        <v>2.09</v>
+      </c>
+      <c r="BE137">
+        <v>2.6</v>
+      </c>
+      <c r="BF137">
+        <v>3</v>
+      </c>
+      <c r="BG137">
+        <v>4</v>
+      </c>
+      <c r="BH137">
+        <v>8</v>
+      </c>
+      <c r="BI137">
+        <v>2</v>
+      </c>
+      <c r="BJ137">
+        <v>11</v>
+      </c>
+      <c r="BK137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>6731169</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45146.875</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" t="s">
+        <v>103</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>215</v>
+      </c>
+      <c r="P138" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q138">
+        <v>8</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>13</v>
+      </c>
+      <c r="T138">
+        <v>3.1</v>
+      </c>
+      <c r="U138">
+        <v>2.05</v>
+      </c>
+      <c r="V138">
+        <v>3.75</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>2.63</v>
+      </c>
+      <c r="Y138">
+        <v>3.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.33</v>
+      </c>
+      <c r="AA138">
+        <v>7.9</v>
+      </c>
+      <c r="AB138">
+        <v>1.05</v>
+      </c>
+      <c r="AC138">
+        <v>2.44</v>
+      </c>
+      <c r="AD138">
+        <v>3.3</v>
+      </c>
+      <c r="AE138">
+        <v>3.11</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>8.6</v>
+      </c>
+      <c r="AH138">
+        <v>1.37</v>
+      </c>
+      <c r="AI138">
+        <v>2.98</v>
+      </c>
+      <c r="AJ138">
+        <v>2.1</v>
+      </c>
+      <c r="AK138">
+        <v>1.67</v>
+      </c>
+      <c r="AL138">
+        <v>1.86</v>
+      </c>
+      <c r="AM138">
+        <v>1.86</v>
+      </c>
+      <c r="AN138">
+        <v>1.36</v>
+      </c>
+      <c r="AO138">
+        <v>1.3</v>
+      </c>
+      <c r="AP138">
+        <v>1.62</v>
+      </c>
+      <c r="AQ138">
+        <v>1.71</v>
+      </c>
+      <c r="AR138">
+        <v>1.86</v>
+      </c>
+      <c r="AS138">
+        <v>1.88</v>
+      </c>
+      <c r="AT138">
+        <v>1.63</v>
+      </c>
+      <c r="AU138">
+        <v>2.22</v>
+      </c>
+      <c r="AV138">
+        <v>2.11</v>
+      </c>
+      <c r="AW138">
+        <v>4.33</v>
+      </c>
+      <c r="AX138">
+        <v>1.8</v>
+      </c>
+      <c r="AY138">
+        <v>7</v>
+      </c>
+      <c r="AZ138">
+        <v>2.5</v>
+      </c>
+      <c r="BA138">
+        <v>1.2</v>
+      </c>
+      <c r="BB138">
+        <v>1.38</v>
+      </c>
+      <c r="BC138">
+        <v>1.7</v>
+      </c>
+      <c r="BD138">
+        <v>2.05</v>
+      </c>
+      <c r="BE138">
+        <v>2.77</v>
+      </c>
+      <c r="BF138">
+        <v>2</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>4</v>
+      </c>
+      <c r="BI138">
+        <v>4</v>
+      </c>
+      <c r="BJ138">
+        <v>6</v>
+      </c>
+      <c r="BK138">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -852,6 +852,12 @@
   <si>
     <t>['8']</t>
   </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['23', '31', '34', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1212,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7849,7 +7855,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -8804,7 +8810,7 @@
         <v>0.83</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8992,10 +8998,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9374,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9950,7 +9956,7 @@
         <v>0.83</v>
       </c>
       <c r="AT46">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10329,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10902,10 +10908,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -12433,7 +12439,7 @@
         <v>0.67</v>
       </c>
       <c r="AT59">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12621,7 +12627,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -13003,7 +13009,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT62">
         <v>1.6</v>
@@ -14531,7 +14537,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>1.63</v>
@@ -14725,7 +14731,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14916,7 +14922,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU72">
         <v>2.51</v>
@@ -15298,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AT74">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15677,7 +15683,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT76">
         <v>1.75</v>
@@ -16250,7 +16256,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>0.83</v>
@@ -16823,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
         <v>0.67</v>
@@ -17017,7 +17023,7 @@
         <v>0.67</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17781,7 +17787,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -17969,10 +17975,10 @@
         <v>2.33</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU88">
         <v>1.78</v>
@@ -19118,7 +19124,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU94">
         <v>1.43</v>
@@ -19500,7 +19506,7 @@
         <v>0.83</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -19879,7 +19885,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20452,7 +20458,7 @@
         <v>1.88</v>
       </c>
       <c r="AS101">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20837,7 +20843,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU103">
         <v>1.83</v>
@@ -21407,7 +21413,7 @@
         <v>0.75</v>
       </c>
       <c r="AS106">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -22174,7 +22180,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -23890,7 +23896,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>1.8</v>
@@ -24081,7 +24087,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT120">
         <v>0.83</v>
@@ -24845,7 +24851,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT124">
         <v>0.83</v>
@@ -25039,7 +25045,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU125">
         <v>2.08</v>
@@ -25227,10 +25233,10 @@
         <v>2.4</v>
       </c>
       <c r="AS126">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT126">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU126">
         <v>2.14</v>
@@ -25803,7 +25809,7 @@
         <v>1.63</v>
       </c>
       <c r="AT129">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU129">
         <v>1.95</v>
@@ -25991,7 +25997,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT130">
         <v>2</v>
@@ -26185,7 +26191,7 @@
         <v>1.63</v>
       </c>
       <c r="AT131">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26373,7 +26379,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>1.63</v>
@@ -26567,7 +26573,7 @@
         <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU133">
         <v>2.17</v>
@@ -26758,7 +26764,7 @@
         <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU134">
         <v>1.87</v>
@@ -27328,7 +27334,7 @@
         <v>1.86</v>
       </c>
       <c r="AS137">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>1.63</v>
@@ -27522,7 +27528,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU138">
         <v>1.29</v>
@@ -27710,7 +27716,7 @@
         <v>1.71</v>
       </c>
       <c r="AS139">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT139">
         <v>1.63</v>
@@ -27904,7 +27910,7 @@
         <v>1.63</v>
       </c>
       <c r="AT140">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>2.05</v>
@@ -28092,7 +28098,7 @@
         <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT141">
         <v>1.58</v>
@@ -28474,7 +28480,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT143">
         <v>1.63</v>
@@ -28529,6 +28535,579 @@
       </c>
       <c r="BK143">
         <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7158629</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45160.79166666666</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>91</v>
+      </c>
+      <c r="H144" t="s">
+        <v>96</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>117</v>
+      </c>
+      <c r="P144" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q144">
+        <v>15</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>17</v>
+      </c>
+      <c r="T144">
+        <v>2.38</v>
+      </c>
+      <c r="U144">
+        <v>2.1</v>
+      </c>
+      <c r="V144">
+        <v>5</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>2.63</v>
+      </c>
+      <c r="Y144">
+        <v>3</v>
+      </c>
+      <c r="Z144">
+        <v>1.36</v>
+      </c>
+      <c r="AA144">
+        <v>9</v>
+      </c>
+      <c r="AB144">
+        <v>1.07</v>
+      </c>
+      <c r="AC144">
+        <v>1.9</v>
+      </c>
+      <c r="AD144">
+        <v>3.5</v>
+      </c>
+      <c r="AE144">
+        <v>3.75</v>
+      </c>
+      <c r="AF144">
+        <v>1.05</v>
+      </c>
+      <c r="AG144">
+        <v>10</v>
+      </c>
+      <c r="AH144">
+        <v>1.33</v>
+      </c>
+      <c r="AI144">
+        <v>3.23</v>
+      </c>
+      <c r="AJ144">
+        <v>1.95</v>
+      </c>
+      <c r="AK144">
+        <v>1.75</v>
+      </c>
+      <c r="AL144">
+        <v>1.95</v>
+      </c>
+      <c r="AM144">
+        <v>1.8</v>
+      </c>
+      <c r="AN144">
+        <v>1.22</v>
+      </c>
+      <c r="AO144">
+        <v>1.28</v>
+      </c>
+      <c r="AP144">
+        <v>1.93</v>
+      </c>
+      <c r="AQ144">
+        <v>1.88</v>
+      </c>
+      <c r="AR144">
+        <v>1.88</v>
+      </c>
+      <c r="AS144">
+        <v>1.67</v>
+      </c>
+      <c r="AT144">
+        <v>2</v>
+      </c>
+      <c r="AU144">
+        <v>2.15</v>
+      </c>
+      <c r="AV144">
+        <v>1.24</v>
+      </c>
+      <c r="AW144">
+        <v>3.39</v>
+      </c>
+      <c r="AX144">
+        <v>1.34</v>
+      </c>
+      <c r="AY144">
+        <v>10.5</v>
+      </c>
+      <c r="AZ144">
+        <v>3.88</v>
+      </c>
+      <c r="BA144">
+        <v>1.2</v>
+      </c>
+      <c r="BB144">
+        <v>1.3</v>
+      </c>
+      <c r="BC144">
+        <v>1.53</v>
+      </c>
+      <c r="BD144">
+        <v>1.94</v>
+      </c>
+      <c r="BE144">
+        <v>2.5</v>
+      </c>
+      <c r="BF144">
+        <v>6</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>11</v>
+      </c>
+      <c r="BI144">
+        <v>4</v>
+      </c>
+      <c r="BJ144">
+        <v>17</v>
+      </c>
+      <c r="BK144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7160790</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45161.89583333334</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>99</v>
+      </c>
+      <c r="H145" t="s">
+        <v>108</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145" t="s">
+        <v>117</v>
+      </c>
+      <c r="P145" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q145">
+        <v>11</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>13</v>
+      </c>
+      <c r="T145">
+        <v>2.63</v>
+      </c>
+      <c r="U145">
+        <v>1.95</v>
+      </c>
+      <c r="V145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>1.57</v>
+      </c>
+      <c r="X145">
+        <v>2.25</v>
+      </c>
+      <c r="Y145">
+        <v>3.75</v>
+      </c>
+      <c r="Z145">
+        <v>1.25</v>
+      </c>
+      <c r="AA145">
+        <v>11</v>
+      </c>
+      <c r="AB145">
+        <v>1.05</v>
+      </c>
+      <c r="AC145">
+        <v>1.89</v>
+      </c>
+      <c r="AD145">
+        <v>3.25</v>
+      </c>
+      <c r="AE145">
+        <v>4.7</v>
+      </c>
+      <c r="AF145">
+        <v>1.09</v>
+      </c>
+      <c r="AG145">
+        <v>6.83</v>
+      </c>
+      <c r="AH145">
+        <v>1.56</v>
+      </c>
+      <c r="AI145">
+        <v>2.4</v>
+      </c>
+      <c r="AJ145">
+        <v>2.46</v>
+      </c>
+      <c r="AK145">
+        <v>1.49</v>
+      </c>
+      <c r="AL145">
+        <v>2.2</v>
+      </c>
+      <c r="AM145">
+        <v>1.62</v>
+      </c>
+      <c r="AN145">
+        <v>1.23</v>
+      </c>
+      <c r="AO145">
+        <v>1.33</v>
+      </c>
+      <c r="AP145">
+        <v>1.78</v>
+      </c>
+      <c r="AQ145">
+        <v>1.88</v>
+      </c>
+      <c r="AR145">
+        <v>2</v>
+      </c>
+      <c r="AS145">
+        <v>1.78</v>
+      </c>
+      <c r="AT145">
+        <v>1.89</v>
+      </c>
+      <c r="AU145">
+        <v>1.88</v>
+      </c>
+      <c r="AV145">
+        <v>1.25</v>
+      </c>
+      <c r="AW145">
+        <v>3.13</v>
+      </c>
+      <c r="AX145">
+        <v>1.58</v>
+      </c>
+      <c r="AY145">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ145">
+        <v>2.9</v>
+      </c>
+      <c r="BA145">
+        <v>1.26</v>
+      </c>
+      <c r="BB145">
+        <v>1.51</v>
+      </c>
+      <c r="BC145">
+        <v>1.89</v>
+      </c>
+      <c r="BD145">
+        <v>2.44</v>
+      </c>
+      <c r="BE145">
+        <v>3.28</v>
+      </c>
+      <c r="BF145">
+        <v>6</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>13</v>
+      </c>
+      <c r="BK145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7158630</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45161.89583333334</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>92</v>
+      </c>
+      <c r="H146" t="s">
+        <v>110</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>117</v>
+      </c>
+      <c r="P146" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>5.5</v>
+      </c>
+      <c r="U146">
+        <v>2.1</v>
+      </c>
+      <c r="V146">
+        <v>2.4</v>
+      </c>
+      <c r="W146">
+        <v>1.44</v>
+      </c>
+      <c r="X146">
+        <v>2.63</v>
+      </c>
+      <c r="Y146">
+        <v>3.25</v>
+      </c>
+      <c r="Z146">
+        <v>1.33</v>
+      </c>
+      <c r="AA146">
+        <v>10</v>
+      </c>
+      <c r="AB146">
+        <v>1.06</v>
+      </c>
+      <c r="AC146">
+        <v>4.2</v>
+      </c>
+      <c r="AD146">
+        <v>3.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.89</v>
+      </c>
+      <c r="AF146">
+        <v>1.06</v>
+      </c>
+      <c r="AG146">
+        <v>8.6</v>
+      </c>
+      <c r="AH146">
+        <v>1.39</v>
+      </c>
+      <c r="AI146">
+        <v>2.91</v>
+      </c>
+      <c r="AJ146">
+        <v>2.23</v>
+      </c>
+      <c r="AK146">
+        <v>1.66</v>
+      </c>
+      <c r="AL146">
+        <v>2.05</v>
+      </c>
+      <c r="AM146">
+        <v>1.7</v>
+      </c>
+      <c r="AN146">
+        <v>1.98</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.19</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>2.38</v>
+      </c>
+      <c r="AS146">
+        <v>1.33</v>
+      </c>
+      <c r="AT146">
+        <v>2.44</v>
+      </c>
+      <c r="AU146">
+        <v>1.73</v>
+      </c>
+      <c r="AV146">
+        <v>1.51</v>
+      </c>
+      <c r="AW146">
+        <v>3.24</v>
+      </c>
+      <c r="AX146">
+        <v>2.89</v>
+      </c>
+      <c r="AY146">
+        <v>8.5</v>
+      </c>
+      <c r="AZ146">
+        <v>1.59</v>
+      </c>
+      <c r="BA146">
+        <v>1.2</v>
+      </c>
+      <c r="BB146">
+        <v>1.4</v>
+      </c>
+      <c r="BC146">
+        <v>1.72</v>
+      </c>
+      <c r="BD146">
+        <v>2.16</v>
+      </c>
+      <c r="BE146">
+        <v>2.84</v>
+      </c>
+      <c r="BF146">
+        <v>3</v>
+      </c>
+      <c r="BG146">
+        <v>6</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>3</v>
+      </c>
+      <c r="BJ146">
+        <v>7</v>
+      </c>
+      <c r="BK146">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,9 @@
     <t>['28', '50', '56']</t>
   </si>
   <si>
+    <t>['43', '59']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1218,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1465,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1653,7 +1656,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1844,7 +1847,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2035,7 +2038,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2990,7 +2993,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4327,7 +4330,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4709,7 +4712,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4900,7 +4903,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5091,7 +5094,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5473,7 +5476,7 @@
         <v>128</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5664,7 +5667,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5855,7 +5858,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6046,7 +6049,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6810,7 +6813,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7383,7 +7386,7 @@
         <v>136</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7765,7 +7768,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7956,7 +7959,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8147,7 +8150,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8338,7 +8341,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8529,7 +8532,7 @@
         <v>140</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8720,7 +8723,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9102,7 +9105,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9192,7 +9195,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9293,7 +9296,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9484,7 +9487,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9675,7 +9678,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10147,7 +10150,7 @@
         <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10526,7 +10529,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10717,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10821,7 +10824,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11012,7 +11015,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11394,7 +11397,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11585,7 +11588,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12349,7 +12352,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12540,7 +12543,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12731,7 +12734,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12922,7 +12925,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13113,7 +13116,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13304,7 +13307,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13495,7 +13498,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13686,7 +13689,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13776,7 +13779,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU66">
         <v>1.35</v>
@@ -13877,7 +13880,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14068,7 +14071,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14155,7 +14158,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT68">
         <v>1.63</v>
@@ -14450,7 +14453,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14641,7 +14644,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14832,7 +14835,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15214,7 +15217,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15405,7 +15408,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15596,7 +15599,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15787,7 +15790,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15978,7 +15981,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16360,7 +16363,7 @@
         <v>172</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16933,7 +16936,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17124,7 +17127,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17315,7 +17318,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17697,7 +17700,7 @@
         <v>117</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18270,7 +18273,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18461,7 +18464,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18652,7 +18655,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18742,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -18933,7 +18936,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU93">
         <v>2.28</v>
@@ -19034,7 +19037,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19225,7 +19228,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -21326,7 +21329,7 @@
         <v>189</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21607,7 +21610,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -21708,7 +21711,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -22368,7 +22371,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT111">
         <v>1.63</v>
@@ -22663,7 +22666,7 @@
         <v>195</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>12</v>
@@ -23045,7 +23048,7 @@
         <v>196</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23132,7 +23135,7 @@
         <v>0.8</v>
       </c>
       <c r="AS115">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT115">
         <v>0.67</v>
@@ -23427,7 +23430,7 @@
         <v>198</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23514,7 +23517,7 @@
         <v>1.56</v>
       </c>
       <c r="AS117">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT117">
         <v>1.5</v>
@@ -24573,7 +24576,7 @@
         <v>203</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25337,7 +25340,7 @@
         <v>206</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25528,7 +25531,7 @@
         <v>207</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25618,7 +25621,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU128">
         <v>1.76</v>
@@ -25910,7 +25913,7 @@
         <v>209</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>15</v>
@@ -26483,7 +26486,7 @@
         <v>117</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26674,7 +26677,7 @@
         <v>211</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26955,7 +26958,7 @@
         <v>1.75</v>
       </c>
       <c r="AT135">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU135">
         <v>1.65</v>
@@ -27143,7 +27146,7 @@
         <v>1.71</v>
       </c>
       <c r="AS136">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT136">
         <v>1.5</v>
@@ -27247,7 +27250,7 @@
         <v>214</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27629,7 +27632,7 @@
         <v>216</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -28202,7 +28205,7 @@
         <v>218</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28289,7 +28292,7 @@
         <v>2</v>
       </c>
       <c r="AS142">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT142">
         <v>1.75</v>
@@ -28584,7 +28587,7 @@
         <v>117</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>15</v>
@@ -28966,7 +28969,7 @@
         <v>117</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29108,6 +29111,197 @@
       </c>
       <c r="BK146">
         <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7160789</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45162.89583333334</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>97</v>
+      </c>
+      <c r="H147" t="s">
+        <v>98</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>220</v>
+      </c>
+      <c r="P147" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>7</v>
+      </c>
+      <c r="T147">
+        <v>1.91</v>
+      </c>
+      <c r="U147">
+        <v>2.38</v>
+      </c>
+      <c r="V147">
+        <v>7.5</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>3</v>
+      </c>
+      <c r="Y147">
+        <v>2.63</v>
+      </c>
+      <c r="Z147">
+        <v>1.44</v>
+      </c>
+      <c r="AA147">
+        <v>7</v>
+      </c>
+      <c r="AB147">
+        <v>1.1</v>
+      </c>
+      <c r="AC147">
+        <v>1.53</v>
+      </c>
+      <c r="AD147">
+        <v>3.75</v>
+      </c>
+      <c r="AE147">
+        <v>6.5</v>
+      </c>
+      <c r="AF147">
+        <v>1.03</v>
+      </c>
+      <c r="AG147">
+        <v>13</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.77</v>
+      </c>
+      <c r="AJ147">
+        <v>1.95</v>
+      </c>
+      <c r="AK147">
+        <v>1.73</v>
+      </c>
+      <c r="AL147">
+        <v>2.05</v>
+      </c>
+      <c r="AM147">
+        <v>1.7</v>
+      </c>
+      <c r="AN147">
+        <v>1.07</v>
+      </c>
+      <c r="AO147">
+        <v>1.16</v>
+      </c>
+      <c r="AP147">
+        <v>2.95</v>
+      </c>
+      <c r="AQ147">
+        <v>1.75</v>
+      </c>
+      <c r="AR147">
+        <v>2.13</v>
+      </c>
+      <c r="AS147">
+        <v>1.89</v>
+      </c>
+      <c r="AT147">
+        <v>1.89</v>
+      </c>
+      <c r="AU147">
+        <v>1.88</v>
+      </c>
+      <c r="AV147">
+        <v>1.2</v>
+      </c>
+      <c r="AW147">
+        <v>3.08</v>
+      </c>
+      <c r="AX147">
+        <v>1.2</v>
+      </c>
+      <c r="AY147">
+        <v>14</v>
+      </c>
+      <c r="AZ147">
+        <v>5.19</v>
+      </c>
+      <c r="BA147">
+        <v>1.19</v>
+      </c>
+      <c r="BB147">
+        <v>1.35</v>
+      </c>
+      <c r="BC147">
+        <v>1.4</v>
+      </c>
+      <c r="BD147">
+        <v>1.7</v>
+      </c>
+      <c r="BE147">
+        <v>2.13</v>
+      </c>
+      <c r="BF147">
+        <v>7</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>3</v>
+      </c>
+      <c r="BI147">
+        <v>3</v>
+      </c>
+      <c r="BJ147">
+        <v>10</v>
+      </c>
+      <c r="BK147">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['43', '59']</t>
   </si>
   <si>
+    <t>['11', '60']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -1221,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1468,7 @@
         <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1656,7 +1659,7 @@
         <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1847,7 +1850,7 @@
         <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2038,7 +2041,7 @@
         <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2993,7 +2996,7 @@
         <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4330,7 +4333,7 @@
         <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4712,7 +4715,7 @@
         <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4903,7 +4906,7 @@
         <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5094,7 +5097,7 @@
         <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5476,7 +5479,7 @@
         <v>128</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5667,7 +5670,7 @@
         <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5858,7 +5861,7 @@
         <v>130</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6049,7 +6052,7 @@
         <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6813,7 +6816,7 @@
         <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7386,7 +7389,7 @@
         <v>136</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7768,7 +7771,7 @@
         <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7858,7 +7861,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7959,7 +7962,7 @@
         <v>137</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8150,7 +8153,7 @@
         <v>138</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8341,7 +8344,7 @@
         <v>139</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8532,7 +8535,7 @@
         <v>140</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8723,7 +8726,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8813,7 +8816,7 @@
         <v>0.83</v>
       </c>
       <c r="AT40">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9001,10 +9004,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9105,7 +9108,7 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9296,7 +9299,7 @@
         <v>143</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9383,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9487,7 +9490,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9678,7 +9681,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9959,7 +9962,7 @@
         <v>0.83</v>
       </c>
       <c r="AT46">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10338,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10824,7 +10827,7 @@
         <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10911,10 +10914,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11015,7 +11018,7 @@
         <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11397,7 +11400,7 @@
         <v>150</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11588,7 +11591,7 @@
         <v>151</v>
       </c>
       <c r="P55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12352,7 +12355,7 @@
         <v>154</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12442,7 +12445,7 @@
         <v>0.67</v>
       </c>
       <c r="AT59">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12543,7 +12546,7 @@
         <v>155</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12630,7 +12633,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12734,7 +12737,7 @@
         <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12925,7 +12928,7 @@
         <v>157</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13012,7 +13015,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT62">
         <v>1.6</v>
@@ -13116,7 +13119,7 @@
         <v>158</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13307,7 +13310,7 @@
         <v>159</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13498,7 +13501,7 @@
         <v>160</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13689,7 +13692,7 @@
         <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13880,7 +13883,7 @@
         <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14071,7 +14074,7 @@
         <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14453,7 +14456,7 @@
         <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -14540,7 +14543,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT70">
         <v>1.63</v>
@@ -14644,7 +14647,7 @@
         <v>117</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14734,7 +14737,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14835,7 +14838,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14925,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU72">
         <v>2.51</v>
@@ -15217,7 +15220,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15307,7 +15310,7 @@
         <v>0.67</v>
       </c>
       <c r="AT74">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15408,7 +15411,7 @@
         <v>167</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15599,7 +15602,7 @@
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15686,7 +15689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT76">
         <v>1.75</v>
@@ -15790,7 +15793,7 @@
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15981,7 +15984,7 @@
         <v>170</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16259,7 +16262,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT79">
         <v>0.83</v>
@@ -16363,7 +16366,7 @@
         <v>172</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16832,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>0.67</v>
@@ -16936,7 +16939,7 @@
         <v>158</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17026,7 +17029,7 @@
         <v>0.67</v>
       </c>
       <c r="AT83">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17127,7 +17130,7 @@
         <v>174</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17318,7 +17321,7 @@
         <v>175</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17700,7 +17703,7 @@
         <v>117</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17790,7 +17793,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -17978,10 +17981,10 @@
         <v>2.33</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU88">
         <v>1.78</v>
@@ -18273,7 +18276,7 @@
         <v>178</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18464,7 +18467,7 @@
         <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18655,7 +18658,7 @@
         <v>117</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19037,7 +19040,7 @@
         <v>180</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19127,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU94">
         <v>1.43</v>
@@ -19228,7 +19231,7 @@
         <v>181</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19509,7 +19512,7 @@
         <v>0.83</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -19888,7 +19891,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -20461,7 +20464,7 @@
         <v>1.88</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20846,7 +20849,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU103">
         <v>1.83</v>
@@ -21329,7 +21332,7 @@
         <v>189</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21416,7 +21419,7 @@
         <v>0.75</v>
       </c>
       <c r="AS106">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -21711,7 +21714,7 @@
         <v>191</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q108">
         <v>16</v>
@@ -22183,7 +22186,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22666,7 +22669,7 @@
         <v>195</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>12</v>
@@ -23048,7 +23051,7 @@
         <v>196</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23430,7 +23433,7 @@
         <v>198</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23899,7 +23902,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT119">
         <v>1.8</v>
@@ -24090,7 +24093,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT120">
         <v>0.83</v>
@@ -24576,7 +24579,7 @@
         <v>203</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24854,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT124">
         <v>0.83</v>
@@ -25048,7 +25051,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU125">
         <v>2.08</v>
@@ -25236,10 +25239,10 @@
         <v>2.4</v>
       </c>
       <c r="AS126">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU126">
         <v>2.14</v>
@@ -25340,7 +25343,7 @@
         <v>206</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25531,7 +25534,7 @@
         <v>207</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25812,7 +25815,7 @@
         <v>1.63</v>
       </c>
       <c r="AT129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU129">
         <v>1.95</v>
@@ -25913,7 +25916,7 @@
         <v>209</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>15</v>
@@ -26000,7 +26003,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT130">
         <v>2</v>
@@ -26194,7 +26197,7 @@
         <v>1.63</v>
       </c>
       <c r="AT131">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26382,7 +26385,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT132">
         <v>1.63</v>
@@ -26486,7 +26489,7 @@
         <v>117</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26576,7 +26579,7 @@
         <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU133">
         <v>2.17</v>
@@ -26677,7 +26680,7 @@
         <v>211</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26767,7 +26770,7 @@
         <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU134">
         <v>1.87</v>
@@ -27250,7 +27253,7 @@
         <v>214</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27337,7 +27340,7 @@
         <v>1.86</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT137">
         <v>1.63</v>
@@ -27531,7 +27534,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU138">
         <v>1.29</v>
@@ -27632,7 +27635,7 @@
         <v>216</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27719,7 +27722,7 @@
         <v>1.71</v>
       </c>
       <c r="AS139">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT139">
         <v>1.63</v>
@@ -27913,7 +27916,7 @@
         <v>1.63</v>
       </c>
       <c r="AT140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU140">
         <v>2.05</v>
@@ -28101,7 +28104,7 @@
         <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT141">
         <v>1.58</v>
@@ -28205,7 +28208,7 @@
         <v>218</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28483,7 +28486,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT143">
         <v>1.63</v>
@@ -28587,7 +28590,7 @@
         <v>117</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>15</v>
@@ -28674,10 +28677,10 @@
         <v>1.88</v>
       </c>
       <c r="AS144">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU144">
         <v>2.15</v>
@@ -28865,10 +28868,10 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT145">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU145">
         <v>1.88</v>
@@ -28969,7 +28972,7 @@
         <v>117</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29056,10 +29059,10 @@
         <v>2.38</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT146">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AU146">
         <v>1.73</v>
@@ -29302,6 +29305,579 @@
       </c>
       <c r="BK147">
         <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7158631</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45167.79166666666</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148" t="s">
+        <v>91</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>221</v>
+      </c>
+      <c r="P148" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q148">
+        <v>2</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>1.57</v>
+      </c>
+      <c r="U148">
+        <v>2.6</v>
+      </c>
+      <c r="V148">
+        <v>9.5</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>3.2</v>
+      </c>
+      <c r="Y148">
+        <v>2.37</v>
+      </c>
+      <c r="Z148">
+        <v>1.5</v>
+      </c>
+      <c r="AA148">
+        <v>5.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.12</v>
+      </c>
+      <c r="AC148">
+        <v>1.29</v>
+      </c>
+      <c r="AD148">
+        <v>5.5</v>
+      </c>
+      <c r="AE148">
+        <v>10</v>
+      </c>
+      <c r="AF148">
+        <v>1.04</v>
+      </c>
+      <c r="AG148">
+        <v>10</v>
+      </c>
+      <c r="AH148">
+        <v>1.25</v>
+      </c>
+      <c r="AI148">
+        <v>3.75</v>
+      </c>
+      <c r="AJ148">
+        <v>1.85</v>
+      </c>
+      <c r="AK148">
+        <v>1.85</v>
+      </c>
+      <c r="AL148">
+        <v>2.5</v>
+      </c>
+      <c r="AM148">
+        <v>1.5</v>
+      </c>
+      <c r="AN148">
+        <v>1.02</v>
+      </c>
+      <c r="AO148">
+        <v>1.11</v>
+      </c>
+      <c r="AP148">
+        <v>4.4</v>
+      </c>
+      <c r="AQ148">
+        <v>2</v>
+      </c>
+      <c r="AR148">
+        <v>1.67</v>
+      </c>
+      <c r="AS148">
+        <v>2.1</v>
+      </c>
+      <c r="AT148">
+        <v>1.5</v>
+      </c>
+      <c r="AU148">
+        <v>1.97</v>
+      </c>
+      <c r="AV148">
+        <v>1.13</v>
+      </c>
+      <c r="AW148">
+        <v>3.1</v>
+      </c>
+      <c r="AX148">
+        <v>1.2</v>
+      </c>
+      <c r="AY148">
+        <v>11.5</v>
+      </c>
+      <c r="AZ148">
+        <v>6.1</v>
+      </c>
+      <c r="BA148">
+        <v>1.28</v>
+      </c>
+      <c r="BB148">
+        <v>1.5</v>
+      </c>
+      <c r="BC148">
+        <v>1.86</v>
+      </c>
+      <c r="BD148">
+        <v>2.33</v>
+      </c>
+      <c r="BE148">
+        <v>3</v>
+      </c>
+      <c r="BF148">
+        <v>6</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>9</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>15</v>
+      </c>
+      <c r="BK148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7160792</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>108</v>
+      </c>
+      <c r="H149" t="s">
+        <v>99</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>117</v>
+      </c>
+      <c r="P149" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>4</v>
+      </c>
+      <c r="S149">
+        <v>8</v>
+      </c>
+      <c r="T149">
+        <v>3.6</v>
+      </c>
+      <c r="U149">
+        <v>1.91</v>
+      </c>
+      <c r="V149">
+        <v>3.6</v>
+      </c>
+      <c r="W149">
+        <v>1.55</v>
+      </c>
+      <c r="X149">
+        <v>2.25</v>
+      </c>
+      <c r="Y149">
+        <v>3.6</v>
+      </c>
+      <c r="Z149">
+        <v>1.25</v>
+      </c>
+      <c r="AA149">
+        <v>10.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.04</v>
+      </c>
+      <c r="AC149">
+        <v>2.5</v>
+      </c>
+      <c r="AD149">
+        <v>2.97</v>
+      </c>
+      <c r="AE149">
+        <v>2.65</v>
+      </c>
+      <c r="AF149">
+        <v>1.09</v>
+      </c>
+      <c r="AG149">
+        <v>6.83</v>
+      </c>
+      <c r="AH149">
+        <v>1.58</v>
+      </c>
+      <c r="AI149">
+        <v>2.22</v>
+      </c>
+      <c r="AJ149">
+        <v>2.38</v>
+      </c>
+      <c r="AK149">
+        <v>1.55</v>
+      </c>
+      <c r="AL149">
+        <v>2.1</v>
+      </c>
+      <c r="AM149">
+        <v>1.63</v>
+      </c>
+      <c r="AN149">
+        <v>1.42</v>
+      </c>
+      <c r="AO149">
+        <v>1.37</v>
+      </c>
+      <c r="AP149">
+        <v>1.44</v>
+      </c>
+      <c r="AQ149">
+        <v>1.89</v>
+      </c>
+      <c r="AR149">
+        <v>1.78</v>
+      </c>
+      <c r="AS149">
+        <v>1.8</v>
+      </c>
+      <c r="AT149">
+        <v>1.7</v>
+      </c>
+      <c r="AU149">
+        <v>1.64</v>
+      </c>
+      <c r="AV149">
+        <v>1.18</v>
+      </c>
+      <c r="AW149">
+        <v>2.82</v>
+      </c>
+      <c r="AX149">
+        <v>1.84</v>
+      </c>
+      <c r="AY149">
+        <v>7.5</v>
+      </c>
+      <c r="AZ149">
+        <v>2.28</v>
+      </c>
+      <c r="BA149">
+        <v>1.43</v>
+      </c>
+      <c r="BB149">
+        <v>1.76</v>
+      </c>
+      <c r="BC149">
+        <v>2.25</v>
+      </c>
+      <c r="BD149">
+        <v>2.95</v>
+      </c>
+      <c r="BE149">
+        <v>4.1</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>2</v>
+      </c>
+      <c r="BH149">
+        <v>9</v>
+      </c>
+      <c r="BI149">
+        <v>2</v>
+      </c>
+      <c r="BJ149">
+        <v>9</v>
+      </c>
+      <c r="BK149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7158632</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45168.89583333334</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>110</v>
+      </c>
+      <c r="H150" t="s">
+        <v>92</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>117</v>
+      </c>
+      <c r="P150" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>8</v>
+      </c>
+      <c r="T150">
+        <v>1.67</v>
+      </c>
+      <c r="U150">
+        <v>2.6</v>
+      </c>
+      <c r="V150">
+        <v>11</v>
+      </c>
+      <c r="W150">
+        <v>1.32</v>
+      </c>
+      <c r="X150">
+        <v>3.1</v>
+      </c>
+      <c r="Y150">
+        <v>2.45</v>
+      </c>
+      <c r="Z150">
+        <v>1.49</v>
+      </c>
+      <c r="AA150">
+        <v>5.75</v>
+      </c>
+      <c r="AB150">
+        <v>1.12</v>
+      </c>
+      <c r="AC150">
+        <v>1.17</v>
+      </c>
+      <c r="AD150">
+        <v>5.9</v>
+      </c>
+      <c r="AE150">
+        <v>11</v>
+      </c>
+      <c r="AF150">
+        <v>1.03</v>
+      </c>
+      <c r="AG150">
+        <v>12</v>
+      </c>
+      <c r="AH150">
+        <v>1.22</v>
+      </c>
+      <c r="AI150">
+        <v>3.9</v>
+      </c>
+      <c r="AJ150">
+        <v>1.71</v>
+      </c>
+      <c r="AK150">
+        <v>2.09</v>
+      </c>
+      <c r="AL150">
+        <v>2.45</v>
+      </c>
+      <c r="AM150">
+        <v>1.47</v>
+      </c>
+      <c r="AN150">
+        <v>1.03</v>
+      </c>
+      <c r="AO150">
+        <v>1.12</v>
+      </c>
+      <c r="AP150">
+        <v>4.2</v>
+      </c>
+      <c r="AQ150">
+        <v>2.44</v>
+      </c>
+      <c r="AR150">
+        <v>1.33</v>
+      </c>
+      <c r="AS150">
+        <v>2.3</v>
+      </c>
+      <c r="AT150">
+        <v>1.3</v>
+      </c>
+      <c r="AU150">
+        <v>2.22</v>
+      </c>
+      <c r="AV150">
+        <v>1.06</v>
+      </c>
+      <c r="AW150">
+        <v>3.28</v>
+      </c>
+      <c r="AX150">
+        <v>1.19</v>
+      </c>
+      <c r="AY150">
+        <v>12</v>
+      </c>
+      <c r="AZ150">
+        <v>6.75</v>
+      </c>
+      <c r="BA150">
+        <v>1.27</v>
+      </c>
+      <c r="BB150">
+        <v>1.5</v>
+      </c>
+      <c r="BC150">
+        <v>1.85</v>
+      </c>
+      <c r="BD150">
+        <v>2.32</v>
+      </c>
+      <c r="BE150">
+        <v>3</v>
+      </c>
+      <c r="BF150">
+        <v>8</v>
+      </c>
+      <c r="BG150">
+        <v>4</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>13</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South America Copa Libertadores_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,10 +304,10 @@
     <t>Melgar</t>
   </si>
   <si>
-    <t>Internacional</t>
+    <t>Fluminense</t>
   </si>
   <si>
-    <t>Fluminense</t>
+    <t>Internacional</t>
   </si>
   <si>
     <t>Olimpia</t>
@@ -520,10 +520,10 @@
     <t>['1', '25', '34', '45']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['4', '59', '70', '86']</t>
   </si>
   <si>
-    <t>['4', '59', '70', '86']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -640,28 +640,28 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['65', '79']</t>
+    <t>['13', '27', '76']</t>
   </si>
   <si>
-    <t>['13', '27', '76']</t>
+    <t>['65', '79']</t>
   </si>
   <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['34', '61', '83', '90+5']</t>
+    <t>['49']</t>
   </si>
   <si>
-    <t>['49']</t>
+    <t>['34', '61', '83', '90+5']</t>
   </si>
   <si>
     <t>['86', '90+7']</t>
   </si>
   <si>
-    <t>['70', '78']</t>
+    <t>['31', '67']</t>
   </si>
   <si>
-    <t>['31', '67']</t>
+    <t>['70', '78']</t>
   </si>
   <si>
     <t>['12', '47']</t>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>['23', '31', '34', '82']</t>
+  </si>
+  <si>
+    <t>['24', '80', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7747,7 +7750,7 @@
         <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -9084,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9198,7 +9201,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -10153,7 +10156,7 @@
         <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10212,7 +10215,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5750654</v>
+        <v>5750655</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -10230,16 +10233,16 @@
         <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -10251,100 +10254,100 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s">
         <v>117</v>
       </c>
       <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>1.55</v>
+      </c>
+      <c r="U48">
+        <v>2.65</v>
+      </c>
+      <c r="V48">
+        <v>11</v>
+      </c>
+      <c r="W48">
+        <v>1.29</v>
+      </c>
+      <c r="X48">
+        <v>3.25</v>
+      </c>
+      <c r="Y48">
+        <v>2.25</v>
+      </c>
+      <c r="Z48">
+        <v>1.57</v>
+      </c>
+      <c r="AA48">
+        <v>5</v>
+      </c>
+      <c r="AB48">
+        <v>1.15</v>
+      </c>
+      <c r="AC48">
+        <v>1.1</v>
+      </c>
+      <c r="AD48">
+        <v>6.8</v>
+      </c>
+      <c r="AE48">
         <v>14</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>14</v>
-      </c>
-      <c r="T48">
-        <v>1.44</v>
-      </c>
-      <c r="U48">
-        <v>3</v>
-      </c>
-      <c r="V48">
-        <v>12</v>
-      </c>
-      <c r="W48">
-        <v>1.24</v>
-      </c>
-      <c r="X48">
-        <v>3.7</v>
-      </c>
-      <c r="Y48">
-        <v>2.1</v>
-      </c>
-      <c r="Z48">
-        <v>1.65</v>
-      </c>
-      <c r="AA48">
-        <v>4.5</v>
-      </c>
-      <c r="AB48">
-        <v>1.17</v>
-      </c>
-      <c r="AC48">
-        <v>1.07</v>
-      </c>
-      <c r="AD48">
-        <v>7.5</v>
-      </c>
-      <c r="AE48">
-        <v>20</v>
-      </c>
       <c r="AF48">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG48">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AH48">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AI48">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AJ48">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AK48">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="AL48">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AM48">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AN48">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AO48">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AP48">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10359,43 +10362,43 @@
         <v>1.07</v>
       </c>
       <c r="AY48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ48">
+        <v>10.25</v>
+      </c>
+      <c r="BA48">
+        <v>1.21</v>
+      </c>
+      <c r="BB48">
+        <v>1.41</v>
+      </c>
+      <c r="BC48">
+        <v>1.73</v>
+      </c>
+      <c r="BD48">
+        <v>2.17</v>
+      </c>
+      <c r="BE48">
+        <v>2.84</v>
+      </c>
+      <c r="BF48">
+        <v>12</v>
+      </c>
+      <c r="BG48">
+        <v>3</v>
+      </c>
+      <c r="BH48">
         <v>10</v>
       </c>
-      <c r="BA48">
-        <v>1.13</v>
-      </c>
-      <c r="BB48">
-        <v>1.3</v>
-      </c>
-      <c r="BC48">
-        <v>1.55</v>
-      </c>
-      <c r="BD48">
-        <v>1.92</v>
-      </c>
-      <c r="BE48">
-        <v>2.44</v>
-      </c>
-      <c r="BF48">
-        <v>8</v>
-      </c>
-      <c r="BG48">
-        <v>2</v>
-      </c>
-      <c r="BH48">
-        <v>12</v>
-      </c>
       <c r="BI48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BK48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10403,7 +10406,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5750655</v>
+        <v>5750654</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10421,16 +10424,16 @@
         <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -10442,100 +10445,100 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="P49" t="s">
         <v>117</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T49">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="U49">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="V49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W49">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="X49">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="Y49">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z49">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA49">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AB49">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AC49">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AD49">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AF49">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG49">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AH49">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AI49">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ49">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AK49">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="AL49">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AM49">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AN49">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AO49">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AP49">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="AQ49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10550,43 +10553,43 @@
         <v>1.07</v>
       </c>
       <c r="AY49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ49">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="BA49">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="BB49">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BC49">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="BD49">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="BE49">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="BF49">
+        <v>8</v>
+      </c>
+      <c r="BG49">
+        <v>2</v>
+      </c>
+      <c r="BH49">
         <v>12</v>
       </c>
-      <c r="BG49">
-        <v>3</v>
-      </c>
-      <c r="BH49">
-        <v>10</v>
-      </c>
       <c r="BI49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BK49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10723,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -13782,7 +13785,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU66">
         <v>1.35</v>
@@ -14047,7 +14050,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68" t="s">
         <v>103</v>
@@ -14161,7 +14164,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT68">
         <v>1.63</v>
@@ -14429,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H70" t="s">
         <v>102</v>
@@ -15560,7 +15563,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5750683</v>
+        <v>5750682</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15575,175 +15578,175 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O76" t="s">
         <v>168</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>4.33</v>
+      </c>
+      <c r="W76">
+        <v>1.53</v>
+      </c>
+      <c r="X76">
+        <v>2.38</v>
+      </c>
+      <c r="Y76">
+        <v>3.5</v>
+      </c>
+      <c r="Z76">
+        <v>1.29</v>
+      </c>
+      <c r="AA76">
+        <v>11</v>
+      </c>
+      <c r="AB76">
+        <v>1.05</v>
+      </c>
+      <c r="AC76">
+        <v>2.15</v>
+      </c>
+      <c r="AD76">
+        <v>3.2</v>
+      </c>
+      <c r="AE76">
+        <v>3.4</v>
+      </c>
+      <c r="AF76">
+        <v>1.08</v>
+      </c>
+      <c r="AG76">
+        <v>8.5</v>
+      </c>
+      <c r="AH76">
+        <v>1.44</v>
+      </c>
+      <c r="AI76">
+        <v>2.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2.37</v>
+      </c>
+      <c r="AK76">
+        <v>1.52</v>
+      </c>
+      <c r="AL76">
+        <v>2.05</v>
+      </c>
+      <c r="AM76">
+        <v>1.7</v>
+      </c>
+      <c r="AN76">
+        <v>1.29</v>
+      </c>
+      <c r="AO76">
+        <v>1.32</v>
+      </c>
+      <c r="AP76">
+        <v>1.68</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0.5</v>
+      </c>
+      <c r="AS76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>0.67</v>
+      </c>
+      <c r="AU76">
+        <v>1.26</v>
+      </c>
+      <c r="AV76">
+        <v>1.71</v>
+      </c>
+      <c r="AW76">
+        <v>2.97</v>
+      </c>
+      <c r="AX76">
+        <v>1.46</v>
+      </c>
+      <c r="AY76">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ76">
+        <v>3.26</v>
+      </c>
+      <c r="BA76">
+        <v>1.22</v>
+      </c>
+      <c r="BB76">
+        <v>1.43</v>
+      </c>
+      <c r="BC76">
+        <v>1.83</v>
+      </c>
+      <c r="BD76">
+        <v>2.23</v>
+      </c>
+      <c r="BE76">
+        <v>2.93</v>
+      </c>
+      <c r="BF76">
         <v>6</v>
       </c>
-      <c r="T76">
-        <v>3.5</v>
-      </c>
-      <c r="U76">
-        <v>2.05</v>
-      </c>
-      <c r="V76">
-        <v>3.2</v>
-      </c>
-      <c r="W76">
-        <v>1.44</v>
-      </c>
-      <c r="X76">
-        <v>2.63</v>
-      </c>
-      <c r="Y76">
-        <v>3.25</v>
-      </c>
-      <c r="Z76">
-        <v>1.33</v>
-      </c>
-      <c r="AA76">
-        <v>9</v>
-      </c>
-      <c r="AB76">
-        <v>1.07</v>
-      </c>
-      <c r="AC76">
-        <v>2.85</v>
-      </c>
-      <c r="AD76">
-        <v>3.35</v>
-      </c>
-      <c r="AE76">
-        <v>2.4</v>
-      </c>
-      <c r="AF76">
-        <v>1.06</v>
-      </c>
-      <c r="AG76">
-        <v>10</v>
-      </c>
-      <c r="AH76">
-        <v>1.36</v>
-      </c>
-      <c r="AI76">
-        <v>3.1</v>
-      </c>
-      <c r="AJ76">
-        <v>2.12</v>
-      </c>
-      <c r="AK76">
-        <v>1.64</v>
-      </c>
-      <c r="AL76">
-        <v>1.91</v>
-      </c>
-      <c r="AM76">
-        <v>1.91</v>
-      </c>
-      <c r="AN76">
-        <v>1.53</v>
-      </c>
-      <c r="AO76">
-        <v>1.31</v>
-      </c>
-      <c r="AP76">
-        <v>1.41</v>
-      </c>
-      <c r="AQ76">
-        <v>3</v>
-      </c>
-      <c r="AR76">
-        <v>1.5</v>
-      </c>
-      <c r="AS76">
-        <v>1.8</v>
-      </c>
-      <c r="AT76">
-        <v>1.75</v>
-      </c>
-      <c r="AU76">
-        <v>1.4</v>
-      </c>
-      <c r="AV76">
-        <v>1.31</v>
-      </c>
-      <c r="AW76">
-        <v>2.71</v>
-      </c>
-      <c r="AX76">
-        <v>1.78</v>
-      </c>
-      <c r="AY76">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AZ76">
-        <v>2.36</v>
-      </c>
-      <c r="BA76">
-        <v>1.15</v>
-      </c>
-      <c r="BB76">
-        <v>1.33</v>
-      </c>
-      <c r="BC76">
-        <v>1.6</v>
-      </c>
-      <c r="BD76">
-        <v>1.96</v>
-      </c>
-      <c r="BE76">
-        <v>2.51</v>
-      </c>
-      <c r="BF76">
-        <v>4</v>
-      </c>
       <c r="BG76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BJ76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK76">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -15751,7 +15754,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5750682</v>
+        <v>5750683</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -15766,175 +15769,175 @@
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
         <v>169</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V77">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="W77">
+        <v>1.44</v>
+      </c>
+      <c r="X77">
+        <v>2.63</v>
+      </c>
+      <c r="Y77">
+        <v>3.25</v>
+      </c>
+      <c r="Z77">
+        <v>1.33</v>
+      </c>
+      <c r="AA77">
+        <v>9</v>
+      </c>
+      <c r="AB77">
+        <v>1.07</v>
+      </c>
+      <c r="AC77">
+        <v>2.85</v>
+      </c>
+      <c r="AD77">
+        <v>3.35</v>
+      </c>
+      <c r="AE77">
+        <v>2.4</v>
+      </c>
+      <c r="AF77">
+        <v>1.06</v>
+      </c>
+      <c r="AG77">
+        <v>10</v>
+      </c>
+      <c r="AH77">
+        <v>1.36</v>
+      </c>
+      <c r="AI77">
+        <v>3.1</v>
+      </c>
+      <c r="AJ77">
+        <v>2.12</v>
+      </c>
+      <c r="AK77">
+        <v>1.64</v>
+      </c>
+      <c r="AL77">
+        <v>1.91</v>
+      </c>
+      <c r="AM77">
+        <v>1.91</v>
+      </c>
+      <c r="AN77">
         <v>1.53</v>
       </c>
-      <c r="X77">
-        <v>2.38</v>
-      </c>
-      <c r="Y77">
-        <v>3.5</v>
-      </c>
-      <c r="Z77">
-        <v>1.29</v>
-      </c>
-      <c r="AA77">
-        <v>11</v>
-      </c>
-      <c r="AB77">
-        <v>1.05</v>
-      </c>
-      <c r="AC77">
-        <v>2.15</v>
-      </c>
-      <c r="AD77">
-        <v>3.2</v>
-      </c>
-      <c r="AE77">
-        <v>3.4</v>
-      </c>
-      <c r="AF77">
-        <v>1.08</v>
-      </c>
-      <c r="AG77">
-        <v>8.5</v>
-      </c>
-      <c r="AH77">
-        <v>1.44</v>
-      </c>
-      <c r="AI77">
-        <v>2.75</v>
-      </c>
-      <c r="AJ77">
-        <v>2.37</v>
-      </c>
-      <c r="AK77">
-        <v>1.52</v>
-      </c>
-      <c r="AL77">
-        <v>2.05</v>
-      </c>
-      <c r="AM77">
-        <v>1.7</v>
-      </c>
-      <c r="AN77">
-        <v>1.29</v>
-      </c>
       <c r="AO77">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AP77">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="AQ77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR77">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AT77">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU77">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AV77">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="AW77">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="AX77">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="AY77">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ77">
-        <v>3.26</v>
+        <v>2.36</v>
       </c>
       <c r="BA77">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="BB77">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BC77">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="BD77">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="BE77">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="BF77">
+        <v>4</v>
+      </c>
+      <c r="BG77">
+        <v>2</v>
+      </c>
+      <c r="BH77">
         <v>6</v>
       </c>
-      <c r="BG77">
-        <v>3</v>
-      </c>
-      <c r="BH77">
-        <v>5</v>
-      </c>
       <c r="BI77">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK77">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:63">
@@ -18748,7 +18751,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -18825,7 +18828,7 @@
         <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -18939,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU93">
         <v>2.28</v>
@@ -19016,7 +19019,7 @@
         <v>87</v>
       </c>
       <c r="H94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20735,7 +20738,7 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -21499,7 +21502,7 @@
         <v>103</v>
       </c>
       <c r="H107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -21613,7 +21616,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -22096,7 +22099,7 @@
         <v>192</v>
       </c>
       <c r="P110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22374,7 +22377,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT111">
         <v>1.63</v>
@@ -22818,7 +22821,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>5750723</v>
+        <v>5750722</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -22833,52 +22836,52 @@
         <v>6</v>
       </c>
       <c r="G114" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H114" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M114">
         <v>1</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O114" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="P114" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="Q114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S114">
         <v>7</v>
       </c>
       <c r="T114">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U114">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V114">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="W114">
         <v>1.36</v>
@@ -22893,88 +22896,88 @@
         <v>1.4</v>
       </c>
       <c r="AA114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB114">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC114">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AD114">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="AE114">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF114">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH114">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AI114">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ114">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AK114">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AL114">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AM114">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AN114">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AO114">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AP114">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR114">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU114">
-        <v>2.01</v>
+        <v>1.54</v>
       </c>
       <c r="AV114">
-        <v>0.9399999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="AW114">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AX114">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AY114">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ114">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BA114">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BB114">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="BC114">
         <v>1.92</v>
@@ -22983,25 +22986,25 @@
         <v>2.38</v>
       </c>
       <c r="BE114">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BF114">
         <v>7</v>
       </c>
       <c r="BG114">
+        <v>2</v>
+      </c>
+      <c r="BH114">
+        <v>9</v>
+      </c>
+      <c r="BI114">
+        <v>4</v>
+      </c>
+      <c r="BJ114">
+        <v>16</v>
+      </c>
+      <c r="BK114">
         <v>6</v>
-      </c>
-      <c r="BH114">
-        <v>6</v>
-      </c>
-      <c r="BI114">
-        <v>3</v>
-      </c>
-      <c r="BJ114">
-        <v>13</v>
-      </c>
-      <c r="BK114">
-        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:63">
@@ -23009,7 +23012,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5750722</v>
+        <v>5750723</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -23024,52 +23027,52 @@
         <v>6</v>
       </c>
       <c r="G115" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H115" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>117</v>
+      </c>
+      <c r="P115" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q115">
         <v>5</v>
       </c>
-      <c r="O115" t="s">
-        <v>196</v>
-      </c>
-      <c r="P115" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q115">
-        <v>3</v>
-      </c>
       <c r="R115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S115">
         <v>7</v>
       </c>
       <c r="T115">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U115">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V115">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="W115">
         <v>1.36</v>
@@ -23084,88 +23087,88 @@
         <v>1.4</v>
       </c>
       <c r="AA115">
+        <v>7</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>1.35</v>
+      </c>
+      <c r="AD115">
+        <v>4.5</v>
+      </c>
+      <c r="AE115">
+        <v>8.5</v>
+      </c>
+      <c r="AF115">
+        <v>1.03</v>
+      </c>
+      <c r="AG115">
+        <v>13</v>
+      </c>
+      <c r="AH115">
+        <v>1.25</v>
+      </c>
+      <c r="AI115">
+        <v>3.75</v>
+      </c>
+      <c r="AJ115">
+        <v>1.75</v>
+      </c>
+      <c r="AK115">
+        <v>2</v>
+      </c>
+      <c r="AL115">
+        <v>2.1</v>
+      </c>
+      <c r="AM115">
+        <v>1.67</v>
+      </c>
+      <c r="AN115">
+        <v>1.09</v>
+      </c>
+      <c r="AO115">
+        <v>1.19</v>
+      </c>
+      <c r="AP115">
+        <v>2.8</v>
+      </c>
+      <c r="AQ115">
+        <v>2</v>
+      </c>
+      <c r="AR115">
+        <v>0.6</v>
+      </c>
+      <c r="AS115">
+        <v>1.63</v>
+      </c>
+      <c r="AT115">
+        <v>1</v>
+      </c>
+      <c r="AU115">
+        <v>2.01</v>
+      </c>
+      <c r="AV115">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW115">
+        <v>2.95</v>
+      </c>
+      <c r="AX115">
+        <v>1.45</v>
+      </c>
+      <c r="AY115">
         <v>8</v>
       </c>
-      <c r="AB115">
-        <v>1.08</v>
-      </c>
-      <c r="AC115">
-        <v>1.5</v>
-      </c>
-      <c r="AD115">
-        <v>4.05</v>
-      </c>
-      <c r="AE115">
-        <v>6.5</v>
-      </c>
-      <c r="AF115">
-        <v>1.04</v>
-      </c>
-      <c r="AG115">
-        <v>12</v>
-      </c>
-      <c r="AH115">
-        <v>1.3</v>
-      </c>
-      <c r="AI115">
+      <c r="AZ115">
         <v>3.5</v>
       </c>
-      <c r="AJ115">
-        <v>1.83</v>
-      </c>
-      <c r="AK115">
-        <v>1.97</v>
-      </c>
-      <c r="AL115">
-        <v>1.95</v>
-      </c>
-      <c r="AM115">
-        <v>1.8</v>
-      </c>
-      <c r="AN115">
-        <v>1.14</v>
-      </c>
-      <c r="AO115">
-        <v>1.24</v>
-      </c>
-      <c r="AP115">
-        <v>2.25</v>
-      </c>
-      <c r="AQ115">
-        <v>2.2</v>
-      </c>
-      <c r="AR115">
-        <v>0.8</v>
-      </c>
-      <c r="AS115">
-        <v>1.89</v>
-      </c>
-      <c r="AT115">
-        <v>0.67</v>
-      </c>
-      <c r="AU115">
-        <v>1.54</v>
-      </c>
-      <c r="AV115">
-        <v>1.27</v>
-      </c>
-      <c r="AW115">
-        <v>2.81</v>
-      </c>
-      <c r="AX115">
-        <v>1.5</v>
-      </c>
-      <c r="AY115">
-        <v>7.5</v>
-      </c>
-      <c r="AZ115">
-        <v>3.3</v>
-      </c>
       <c r="BA115">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BB115">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="BC115">
         <v>1.92</v>
@@ -23174,25 +23177,25 @@
         <v>2.38</v>
       </c>
       <c r="BE115">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BF115">
         <v>7</v>
       </c>
       <c r="BG115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH115">
+        <v>6</v>
+      </c>
+      <c r="BI115">
+        <v>3</v>
+      </c>
+      <c r="BJ115">
+        <v>13</v>
+      </c>
+      <c r="BK115">
         <v>9</v>
-      </c>
-      <c r="BI115">
-        <v>4</v>
-      </c>
-      <c r="BJ115">
-        <v>16</v>
-      </c>
-      <c r="BK115">
-        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:63">
@@ -23406,7 +23409,7 @@
         <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H117" t="s">
         <v>77</v>
@@ -23520,7 +23523,7 @@
         <v>1.56</v>
       </c>
       <c r="AS117">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT117">
         <v>1.5</v>
@@ -23788,7 +23791,7 @@
         <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H119" t="s">
         <v>79</v>
@@ -24728,7 +24731,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>5750730</v>
+        <v>5750731</v>
       </c>
       <c r="C124" t="s">
         <v>63</v>
@@ -24743,142 +24746,142 @@
         <v>6</v>
       </c>
       <c r="G124" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H124" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="P124" t="s">
         <v>117</v>
       </c>
       <c r="Q124">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <v>2.1</v>
+      </c>
+      <c r="U124">
+        <v>2.25</v>
+      </c>
+      <c r="V124">
         <v>6</v>
       </c>
-      <c r="S124">
-        <v>10</v>
-      </c>
-      <c r="T124">
-        <v>1.73</v>
-      </c>
-      <c r="U124">
-        <v>2.4</v>
-      </c>
-      <c r="V124">
-        <v>10</v>
-      </c>
       <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>2.75</v>
+      </c>
+      <c r="Y124">
+        <v>2.75</v>
+      </c>
+      <c r="Z124">
+        <v>1.4</v>
+      </c>
+      <c r="AA124">
+        <v>8</v>
+      </c>
+      <c r="AB124">
+        <v>1.08</v>
+      </c>
+      <c r="AC124">
+        <v>1.57</v>
+      </c>
+      <c r="AD124">
+        <v>4.1</v>
+      </c>
+      <c r="AE124">
+        <v>6</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>11</v>
+      </c>
+      <c r="AH124">
+        <v>1.3</v>
+      </c>
+      <c r="AI124">
+        <v>3.4</v>
+      </c>
+      <c r="AJ124">
+        <v>1.9</v>
+      </c>
+      <c r="AK124">
+        <v>1.91</v>
+      </c>
+      <c r="AL124">
+        <v>2</v>
+      </c>
+      <c r="AM124">
+        <v>1.75</v>
+      </c>
+      <c r="AN124">
+        <v>1.15</v>
+      </c>
+      <c r="AO124">
+        <v>1.24</v>
+      </c>
+      <c r="AP124">
+        <v>2.25</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.4</v>
+      </c>
+      <c r="AS124">
+        <v>1</v>
+      </c>
+      <c r="AT124">
+        <v>1.3</v>
+      </c>
+      <c r="AU124">
+        <v>2.08</v>
+      </c>
+      <c r="AV124">
         <v>1.36</v>
       </c>
-      <c r="X124">
-        <v>3</v>
-      </c>
-      <c r="Y124">
-        <v>2.63</v>
-      </c>
-      <c r="Z124">
-        <v>1.44</v>
-      </c>
-      <c r="AA124">
-        <v>7</v>
-      </c>
-      <c r="AB124">
-        <v>1.1</v>
-      </c>
-      <c r="AC124">
-        <v>1.24</v>
-      </c>
-      <c r="AD124">
-        <v>6</v>
-      </c>
-      <c r="AE124">
-        <v>14</v>
-      </c>
-      <c r="AF124">
-        <v>1.03</v>
-      </c>
-      <c r="AG124">
-        <v>13</v>
-      </c>
-      <c r="AH124">
-        <v>1.25</v>
-      </c>
-      <c r="AI124">
-        <v>3.75</v>
-      </c>
-      <c r="AJ124">
-        <v>1.62</v>
-      </c>
-      <c r="AK124">
-        <v>2.07</v>
-      </c>
-      <c r="AL124">
-        <v>2.5</v>
-      </c>
-      <c r="AM124">
-        <v>1.5</v>
-      </c>
-      <c r="AN124">
-        <v>1.05</v>
-      </c>
-      <c r="AO124">
-        <v>1.14</v>
-      </c>
-      <c r="AP124">
-        <v>3.7</v>
-      </c>
-      <c r="AQ124">
-        <v>2</v>
-      </c>
-      <c r="AR124">
-        <v>1</v>
-      </c>
-      <c r="AS124">
-        <v>1.7</v>
-      </c>
-      <c r="AT124">
-        <v>0.83</v>
-      </c>
-      <c r="AU124">
-        <v>1.67</v>
-      </c>
-      <c r="AV124">
-        <v>1.21</v>
-      </c>
       <c r="AW124">
-        <v>2.88</v>
+        <v>3.44</v>
       </c>
       <c r="AX124">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AY124">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ124">
-        <v>4.86</v>
+        <v>3.88</v>
       </c>
       <c r="BA124">
         <v>1.27</v>
@@ -24890,28 +24893,28 @@
         <v>2</v>
       </c>
       <c r="BD124">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="BE124">
         <v>3.28</v>
       </c>
       <c r="BF124">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BG124">
         <v>3</v>
       </c>
       <c r="BH124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ124">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BK124">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:63">
@@ -24919,7 +24922,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>5750731</v>
+        <v>5750730</v>
       </c>
       <c r="C125" t="s">
         <v>63</v>
@@ -24934,142 +24937,142 @@
         <v>6</v>
       </c>
       <c r="G125" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H125" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O125" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="P125" t="s">
         <v>117</v>
       </c>
       <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>6</v>
+      </c>
+      <c r="S125">
         <v>10</v>
       </c>
-      <c r="R125">
-        <v>2</v>
-      </c>
-      <c r="S125">
-        <v>12</v>
-      </c>
       <c r="T125">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="U125">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="V125">
+        <v>10</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125">
+        <v>2.63</v>
+      </c>
+      <c r="Z125">
+        <v>1.44</v>
+      </c>
+      <c r="AA125">
+        <v>7</v>
+      </c>
+      <c r="AB125">
+        <v>1.1</v>
+      </c>
+      <c r="AC125">
+        <v>1.24</v>
+      </c>
+      <c r="AD125">
         <v>6</v>
       </c>
-      <c r="W125">
-        <v>1.4</v>
-      </c>
-      <c r="X125">
-        <v>2.75</v>
-      </c>
-      <c r="Y125">
-        <v>2.75</v>
-      </c>
-      <c r="Z125">
-        <v>1.4</v>
-      </c>
-      <c r="AA125">
-        <v>8</v>
-      </c>
-      <c r="AB125">
-        <v>1.08</v>
-      </c>
-      <c r="AC125">
-        <v>1.57</v>
-      </c>
-      <c r="AD125">
-        <v>4.1</v>
-      </c>
       <c r="AE125">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AF125">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG125">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH125">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI125">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ125">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AK125">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="AL125">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AM125">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AN125">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AO125">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR125">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AT125">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="AU125">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AV125">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AW125">
-        <v>3.44</v>
+        <v>2.88</v>
       </c>
       <c r="AX125">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AY125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ125">
-        <v>3.88</v>
+        <v>4.86</v>
       </c>
       <c r="BA125">
         <v>1.27</v>
@@ -25081,28 +25084,28 @@
         <v>2</v>
       </c>
       <c r="BD125">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="BE125">
         <v>3.28</v>
       </c>
       <c r="BF125">
+        <v>12</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
         <v>8</v>
       </c>
-      <c r="BG125">
-        <v>3</v>
-      </c>
-      <c r="BH125">
-        <v>9</v>
-      </c>
       <c r="BI125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ125">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BK125">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:63">
@@ -25510,7 +25513,7 @@
         <v>84</v>
       </c>
       <c r="H128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -25624,7 +25627,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU128">
         <v>1.76</v>
@@ -25683,7 +25686,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>6731161</v>
+        <v>6731160</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
@@ -25698,52 +25701,52 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H129" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>1</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
         <v>208</v>
       </c>
       <c r="P129" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="Q129">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R129">
         <v>3</v>
       </c>
       <c r="S129">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T129">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="U129">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V129">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="W129">
         <v>1.4</v>
@@ -25764,25 +25767,25 @@
         <v>1.08</v>
       </c>
       <c r="AC129">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AD129">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AE129">
-        <v>5.05</v>
+        <v>5.65</v>
       </c>
       <c r="AF129">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG129">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH129">
         <v>1.3</v>
       </c>
       <c r="AI129">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AJ129">
         <v>1.93</v>
@@ -25791,82 +25794,82 @@
         <v>1.83</v>
       </c>
       <c r="AL129">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AM129">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AN129">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AO129">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP129">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR129">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AS129">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU129">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="AV129">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AW129">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AX129">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AY129">
-        <v>11.25</v>
+        <v>6.5</v>
       </c>
       <c r="AZ129">
-        <v>4.75</v>
+        <v>3.95</v>
       </c>
       <c r="BA129">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB129">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="BC129">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="BD129">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BE129">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="BF129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH129">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BK129">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:63">
@@ -25874,7 +25877,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>6731160</v>
+        <v>6731161</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -25889,52 +25892,52 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H130" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>1</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O130" t="s">
         <v>209</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="Q130">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="R130">
         <v>3</v>
       </c>
       <c r="S130">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T130">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U130">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V130">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="W130">
         <v>1.4</v>
@@ -25955,25 +25958,25 @@
         <v>1.08</v>
       </c>
       <c r="AC130">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AD130">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AE130">
-        <v>5.65</v>
+        <v>5.05</v>
       </c>
       <c r="AF130">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG130">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH130">
         <v>1.3</v>
       </c>
       <c r="AI130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ130">
         <v>1.93</v>
@@ -25982,82 +25985,82 @@
         <v>1.83</v>
       </c>
       <c r="AL130">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AM130">
+        <v>1.7</v>
+      </c>
+      <c r="AN130">
+        <v>1.12</v>
+      </c>
+      <c r="AO130">
+        <v>1.25</v>
+      </c>
+      <c r="AP130">
+        <v>2.6</v>
+      </c>
+      <c r="AQ130">
+        <v>1.67</v>
+      </c>
+      <c r="AR130">
+        <v>2</v>
+      </c>
+      <c r="AS130">
+        <v>1.63</v>
+      </c>
+      <c r="AT130">
+        <v>2.1</v>
+      </c>
+      <c r="AU130">
         <v>1.95</v>
       </c>
-      <c r="AN130">
+      <c r="AV130">
+        <v>1.45</v>
+      </c>
+      <c r="AW130">
+        <v>3.4</v>
+      </c>
+      <c r="AX130">
+        <v>1.26</v>
+      </c>
+      <c r="AY130">
+        <v>11.25</v>
+      </c>
+      <c r="AZ130">
+        <v>4.75</v>
+      </c>
+      <c r="BA130">
         <v>1.22</v>
       </c>
-      <c r="AO130">
-        <v>1.22</v>
-      </c>
-      <c r="AP130">
-        <v>2</v>
-      </c>
-      <c r="AQ130">
-        <v>2</v>
-      </c>
-      <c r="AR130">
-        <v>2.17</v>
-      </c>
-      <c r="AS130">
-        <v>1.5</v>
-      </c>
-      <c r="AT130">
-        <v>2</v>
-      </c>
-      <c r="AU130">
-        <v>2.09</v>
-      </c>
-      <c r="AV130">
-        <v>1.33</v>
-      </c>
-      <c r="AW130">
-        <v>3.42</v>
-      </c>
-      <c r="AX130">
-        <v>1.3</v>
-      </c>
-      <c r="AY130">
-        <v>6.5</v>
-      </c>
-      <c r="AZ130">
-        <v>3.95</v>
-      </c>
-      <c r="BA130">
-        <v>1.24</v>
-      </c>
       <c r="BB130">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="BC130">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="BD130">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="BE130">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="BF130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG130">
+        <v>3</v>
+      </c>
+      <c r="BH130">
+        <v>7</v>
+      </c>
+      <c r="BI130">
+        <v>1</v>
+      </c>
+      <c r="BJ130">
+        <v>17</v>
+      </c>
+      <c r="BK130">
         <v>4</v>
-      </c>
-      <c r="BH130">
-        <v>9</v>
-      </c>
-      <c r="BI130">
-        <v>4</v>
-      </c>
-      <c r="BJ130">
-        <v>18</v>
-      </c>
-      <c r="BK130">
-        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -26638,7 +26641,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>6731156</v>
+        <v>6731163</v>
       </c>
       <c r="C134" t="s">
         <v>63</v>
@@ -26653,175 +26656,175 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H134" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
         <v>211</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="Q134">
+        <v>8</v>
+      </c>
+      <c r="R134">
+        <v>4</v>
+      </c>
+      <c r="S134">
+        <v>12</v>
+      </c>
+      <c r="T134">
+        <v>1.67</v>
+      </c>
+      <c r="U134">
+        <v>2.75</v>
+      </c>
+      <c r="V134">
+        <v>9</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>3.75</v>
+      </c>
+      <c r="Y134">
+        <v>2.2</v>
+      </c>
+      <c r="Z134">
+        <v>1.62</v>
+      </c>
+      <c r="AA134">
         <v>5</v>
       </c>
-      <c r="R134">
+      <c r="AB134">
+        <v>1.17</v>
+      </c>
+      <c r="AC134">
+        <v>1.2</v>
+      </c>
+      <c r="AD134">
+        <v>5.75</v>
+      </c>
+      <c r="AE134">
+        <v>13</v>
+      </c>
+      <c r="AF134">
+        <v>1.02</v>
+      </c>
+      <c r="AG134">
+        <v>15</v>
+      </c>
+      <c r="AH134">
+        <v>1.15</v>
+      </c>
+      <c r="AI134">
+        <v>4.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.53</v>
+      </c>
+      <c r="AK134">
+        <v>2.33</v>
+      </c>
+      <c r="AL134">
+        <v>2.05</v>
+      </c>
+      <c r="AM134">
+        <v>1.7</v>
+      </c>
+      <c r="AN134">
+        <v>1.05</v>
+      </c>
+      <c r="AO134">
+        <v>1.12</v>
+      </c>
+      <c r="AP134">
+        <v>4.1</v>
+      </c>
+      <c r="AQ134">
+        <v>1.83</v>
+      </c>
+      <c r="AR134">
+        <v>2.33</v>
+      </c>
+      <c r="AS134">
+        <v>1.75</v>
+      </c>
+      <c r="AT134">
+        <v>1.7</v>
+      </c>
+      <c r="AU134">
+        <v>1.65</v>
+      </c>
+      <c r="AV134">
+        <v>1.46</v>
+      </c>
+      <c r="AW134">
+        <v>3.11</v>
+      </c>
+      <c r="AX134">
+        <v>1.18</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>6.22</v>
+      </c>
+      <c r="BA134">
+        <v>1.2</v>
+      </c>
+      <c r="BB134">
+        <v>1.4</v>
+      </c>
+      <c r="BC134">
+        <v>1.72</v>
+      </c>
+      <c r="BD134">
+        <v>2.14</v>
+      </c>
+      <c r="BE134">
+        <v>2.79</v>
+      </c>
+      <c r="BF134">
         <v>6</v>
       </c>
-      <c r="S134">
-        <v>11</v>
-      </c>
-      <c r="T134">
-        <v>3.1</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>3.75</v>
-      </c>
-      <c r="W134">
-        <v>1.5</v>
-      </c>
-      <c r="X134">
-        <v>2.5</v>
-      </c>
-      <c r="Y134">
-        <v>3.4</v>
-      </c>
-      <c r="Z134">
-        <v>1.3</v>
-      </c>
-      <c r="AA134">
-        <v>10</v>
-      </c>
-      <c r="AB134">
-        <v>1.06</v>
-      </c>
-      <c r="AC134">
-        <v>2.3</v>
-      </c>
-      <c r="AD134">
-        <v>2.9</v>
-      </c>
-      <c r="AE134">
-        <v>3</v>
-      </c>
-      <c r="AF134">
-        <v>1.07</v>
-      </c>
-      <c r="AG134">
-        <v>8.25</v>
-      </c>
-      <c r="AH134">
-        <v>1.42</v>
-      </c>
-      <c r="AI134">
-        <v>2.7</v>
-      </c>
-      <c r="AJ134">
-        <v>2.25</v>
-      </c>
-      <c r="AK134">
-        <v>1.57</v>
-      </c>
-      <c r="AL134">
-        <v>1.95</v>
-      </c>
-      <c r="AM134">
-        <v>1.8</v>
-      </c>
-      <c r="AN134">
-        <v>1.36</v>
-      </c>
-      <c r="AO134">
-        <v>1.38</v>
-      </c>
-      <c r="AP134">
-        <v>1.57</v>
-      </c>
-      <c r="AQ134">
-        <v>1.67</v>
-      </c>
-      <c r="AR134">
-        <v>2.17</v>
-      </c>
-      <c r="AS134">
-        <v>1.63</v>
-      </c>
-      <c r="AT134">
-        <v>1.8</v>
-      </c>
-      <c r="AU134">
-        <v>1.87</v>
-      </c>
-      <c r="AV134">
-        <v>1.17</v>
-      </c>
-      <c r="AW134">
-        <v>3.04</v>
-      </c>
-      <c r="AX134">
-        <v>1.86</v>
-      </c>
-      <c r="AY134">
-        <v>5.5</v>
-      </c>
-      <c r="AZ134">
-        <v>2.2</v>
-      </c>
-      <c r="BA134">
-        <v>1.27</v>
-      </c>
-      <c r="BB134">
-        <v>1.51</v>
-      </c>
-      <c r="BC134">
-        <v>1.9</v>
-      </c>
-      <c r="BD134">
-        <v>2.46</v>
-      </c>
-      <c r="BE134">
-        <v>3.28</v>
-      </c>
-      <c r="BF134">
-        <v>8</v>
-      </c>
       <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
         <v>6</v>
       </c>
-      <c r="BH134">
+      <c r="BI134">
         <v>4</v>
-      </c>
-      <c r="BI134">
-        <v>3</v>
       </c>
       <c r="BJ134">
         <v>12</v>
       </c>
       <c r="BK134">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:63">
@@ -26829,7 +26832,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>6731163</v>
+        <v>6731156</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -26844,175 +26847,175 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H135" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O135" t="s">
         <v>212</v>
       </c>
       <c r="P135" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>6</v>
+      </c>
+      <c r="S135">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>3.1</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>3.75</v>
+      </c>
+      <c r="W135">
+        <v>1.5</v>
+      </c>
+      <c r="X135">
+        <v>2.5</v>
+      </c>
+      <c r="Y135">
+        <v>3.4</v>
+      </c>
+      <c r="Z135">
+        <v>1.3</v>
+      </c>
+      <c r="AA135">
+        <v>10</v>
+      </c>
+      <c r="AB135">
+        <v>1.06</v>
+      </c>
+      <c r="AC135">
+        <v>2.3</v>
+      </c>
+      <c r="AD135">
+        <v>2.9</v>
+      </c>
+      <c r="AE135">
+        <v>3</v>
+      </c>
+      <c r="AF135">
+        <v>1.07</v>
+      </c>
+      <c r="AG135">
+        <v>8.25</v>
+      </c>
+      <c r="AH135">
+        <v>1.42</v>
+      </c>
+      <c r="AI135">
+        <v>2.7</v>
+      </c>
+      <c r="AJ135">
+        <v>2.25</v>
+      </c>
+      <c r="AK135">
+        <v>1.57</v>
+      </c>
+      <c r="AL135">
+        <v>1.95</v>
+      </c>
+      <c r="AM135">
+        <v>1.8</v>
+      </c>
+      <c r="AN135">
+        <v>1.36</v>
+      </c>
+      <c r="AO135">
+        <v>1.38</v>
+      </c>
+      <c r="AP135">
+        <v>1.57</v>
+      </c>
+      <c r="AQ135">
+        <v>1.67</v>
+      </c>
+      <c r="AR135">
+        <v>2.17</v>
+      </c>
+      <c r="AS135">
+        <v>1.63</v>
+      </c>
+      <c r="AT135">
+        <v>1.8</v>
+      </c>
+      <c r="AU135">
+        <v>1.87</v>
+      </c>
+      <c r="AV135">
+        <v>1.17</v>
+      </c>
+      <c r="AW135">
+        <v>3.04</v>
+      </c>
+      <c r="AX135">
+        <v>1.86</v>
+      </c>
+      <c r="AY135">
+        <v>5.5</v>
+      </c>
+      <c r="AZ135">
+        <v>2.2</v>
+      </c>
+      <c r="BA135">
+        <v>1.27</v>
+      </c>
+      <c r="BB135">
+        <v>1.51</v>
+      </c>
+      <c r="BC135">
+        <v>1.9</v>
+      </c>
+      <c r="BD135">
+        <v>2.46</v>
+      </c>
+      <c r="BE135">
+        <v>3.28</v>
+      </c>
+      <c r="BF135">
         <v>8</v>
       </c>
-      <c r="R135">
+      <c r="BG135">
+        <v>6</v>
+      </c>
+      <c r="BH135">
         <v>4</v>
       </c>
-      <c r="S135">
-        <v>12</v>
-      </c>
-      <c r="T135">
-        <v>1.67</v>
-      </c>
-      <c r="U135">
-        <v>2.75</v>
-      </c>
-      <c r="V135">
-        <v>9</v>
-      </c>
-      <c r="W135">
-        <v>1.25</v>
-      </c>
-      <c r="X135">
-        <v>3.75</v>
-      </c>
-      <c r="Y135">
-        <v>2.2</v>
-      </c>
-      <c r="Z135">
-        <v>1.62</v>
-      </c>
-      <c r="AA135">
-        <v>5</v>
-      </c>
-      <c r="AB135">
-        <v>1.17</v>
-      </c>
-      <c r="AC135">
-        <v>1.2</v>
-      </c>
-      <c r="AD135">
-        <v>5.75</v>
-      </c>
-      <c r="AE135">
-        <v>13</v>
-      </c>
-      <c r="AF135">
-        <v>1.02</v>
-      </c>
-      <c r="AG135">
-        <v>15</v>
-      </c>
-      <c r="AH135">
-        <v>1.15</v>
-      </c>
-      <c r="AI135">
-        <v>4.8</v>
-      </c>
-      <c r="AJ135">
-        <v>1.53</v>
-      </c>
-      <c r="AK135">
-        <v>2.33</v>
-      </c>
-      <c r="AL135">
-        <v>2.05</v>
-      </c>
-      <c r="AM135">
-        <v>1.7</v>
-      </c>
-      <c r="AN135">
-        <v>1.05</v>
-      </c>
-      <c r="AO135">
-        <v>1.12</v>
-      </c>
-      <c r="AP135">
-        <v>4.1</v>
-      </c>
-      <c r="AQ135">
-        <v>1.83</v>
-      </c>
-      <c r="AR135">
-        <v>2.33</v>
-      </c>
-      <c r="AS135">
-        <v>1.75</v>
-      </c>
-      <c r="AT135">
-        <v>1.89</v>
-      </c>
-      <c r="AU135">
-        <v>1.65</v>
-      </c>
-      <c r="AV135">
-        <v>1.46</v>
-      </c>
-      <c r="AW135">
-        <v>3.11</v>
-      </c>
-      <c r="AX135">
-        <v>1.18</v>
-      </c>
-      <c r="AY135">
-        <v>13</v>
-      </c>
-      <c r="AZ135">
-        <v>6.22</v>
-      </c>
-      <c r="BA135">
-        <v>1.2</v>
-      </c>
-      <c r="BB135">
-        <v>1.4</v>
-      </c>
-      <c r="BC135">
-        <v>1.72</v>
-      </c>
-      <c r="BD135">
-        <v>2.14</v>
-      </c>
-      <c r="BE135">
-        <v>2.79</v>
-      </c>
-      <c r="BF135">
-        <v>6</v>
-      </c>
-      <c r="BG135">
-        <v>0</v>
-      </c>
-      <c r="BH135">
-        <v>6</v>
-      </c>
       <c r="BI135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ135">
         <v>12</v>
       </c>
       <c r="BK135">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:63">
@@ -27035,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H136" t="s">
         <v>84</v>
@@ -27149,7 +27152,7 @@
         <v>1.71</v>
       </c>
       <c r="AS136">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>1.5</v>
@@ -27211,7 +27214,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>6731169</v>
+        <v>6731168</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
@@ -27226,172 +27229,172 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H137" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>2</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O137" t="s">
         <v>214</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="Q137">
         <v>8</v>
       </c>
       <c r="R137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T137">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="U137">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="V137">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="W137">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="X137">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="Y137">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="Z137">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AA137">
-        <v>7.9</v>
+        <v>5.75</v>
       </c>
       <c r="AB137">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AC137">
-        <v>2.44</v>
+        <v>1.2</v>
       </c>
       <c r="AD137">
-        <v>3.3</v>
+        <v>7.12</v>
       </c>
       <c r="AE137">
-        <v>3.11</v>
+        <v>16.09</v>
       </c>
       <c r="AF137">
+        <v>1.03</v>
+      </c>
+      <c r="AG137">
+        <v>18.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.2</v>
+      </c>
+      <c r="AI137">
+        <v>4.58</v>
+      </c>
+      <c r="AJ137">
+        <v>1.57</v>
+      </c>
+      <c r="AK137">
+        <v>2.25</v>
+      </c>
+      <c r="AL137">
+        <v>2.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.62</v>
+      </c>
+      <c r="AN137">
         <v>1.06</v>
       </c>
-      <c r="AG137">
-        <v>8.6</v>
-      </c>
-      <c r="AH137">
-        <v>1.37</v>
-      </c>
-      <c r="AI137">
-        <v>2.98</v>
-      </c>
-      <c r="AJ137">
-        <v>2.1</v>
-      </c>
-      <c r="AK137">
-        <v>1.67</v>
-      </c>
-      <c r="AL137">
+      <c r="AO137">
+        <v>1.13</v>
+      </c>
+      <c r="AP137">
+        <v>4</v>
+      </c>
+      <c r="AQ137">
         <v>1.86</v>
       </c>
-      <c r="AM137">
-        <v>1.86</v>
-      </c>
-      <c r="AN137">
-        <v>1.36</v>
-      </c>
-      <c r="AO137">
-        <v>1.3</v>
-      </c>
-      <c r="AP137">
-        <v>1.62</v>
-      </c>
-      <c r="AQ137">
-        <v>1.71</v>
-      </c>
       <c r="AR137">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AS137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT137">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AU137">
-        <v>2.22</v>
+        <v>1.29</v>
       </c>
       <c r="AV137">
-        <v>2.11</v>
+        <v>1.22</v>
       </c>
       <c r="AW137">
-        <v>4.33</v>
+        <v>2.51</v>
       </c>
       <c r="AX137">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="AY137">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ137">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="BA137">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="BB137">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="BC137">
         <v>1.7</v>
       </c>
       <c r="BD137">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="BE137">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="BF137">
         <v>4</v>
       </c>
       <c r="BG137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH137">
+        <v>10</v>
+      </c>
+      <c r="BI137">
         <v>5</v>
       </c>
-      <c r="BI137">
-        <v>3</v>
-      </c>
       <c r="BJ137">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK137">
         <v>7</v>
@@ -27402,7 +27405,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6731168</v>
+        <v>6731169</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -27417,172 +27420,172 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H138" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
         <v>2</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O138" t="s">
         <v>215</v>
       </c>
       <c r="P138" t="s">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>8</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S138">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T138">
+        <v>3.1</v>
+      </c>
+      <c r="U138">
+        <v>2.05</v>
+      </c>
+      <c r="V138">
+        <v>3.75</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>2.63</v>
+      </c>
+      <c r="Y138">
+        <v>3.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.33</v>
+      </c>
+      <c r="AA138">
+        <v>7.9</v>
+      </c>
+      <c r="AB138">
+        <v>1.05</v>
+      </c>
+      <c r="AC138">
+        <v>2.44</v>
+      </c>
+      <c r="AD138">
+        <v>3.3</v>
+      </c>
+      <c r="AE138">
+        <v>3.11</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>8.6</v>
+      </c>
+      <c r="AH138">
+        <v>1.37</v>
+      </c>
+      <c r="AI138">
+        <v>2.98</v>
+      </c>
+      <c r="AJ138">
+        <v>2.1</v>
+      </c>
+      <c r="AK138">
+        <v>1.67</v>
+      </c>
+      <c r="AL138">
+        <v>1.86</v>
+      </c>
+      <c r="AM138">
+        <v>1.86</v>
+      </c>
+      <c r="AN138">
+        <v>1.36</v>
+      </c>
+      <c r="AO138">
+        <v>1.3</v>
+      </c>
+      <c r="AP138">
         <v>1.62</v>
       </c>
-      <c r="U138">
-        <v>2.6</v>
-      </c>
-      <c r="V138">
-        <v>9</v>
-      </c>
-      <c r="W138">
-        <v>1.28</v>
-      </c>
-      <c r="X138">
-        <v>3.3</v>
-      </c>
-      <c r="Y138">
-        <v>2.35</v>
-      </c>
-      <c r="Z138">
-        <v>1.52</v>
-      </c>
-      <c r="AA138">
-        <v>5.75</v>
-      </c>
-      <c r="AB138">
-        <v>1.13</v>
-      </c>
-      <c r="AC138">
+      <c r="AQ138">
+        <v>1.71</v>
+      </c>
+      <c r="AR138">
+        <v>1.86</v>
+      </c>
+      <c r="AS138">
+        <v>2.1</v>
+      </c>
+      <c r="AT138">
+        <v>1.63</v>
+      </c>
+      <c r="AU138">
+        <v>2.22</v>
+      </c>
+      <c r="AV138">
+        <v>2.11</v>
+      </c>
+      <c r="AW138">
+        <v>4.33</v>
+      </c>
+      <c r="AX138">
+        <v>1.8</v>
+      </c>
+      <c r="AY138">
+        <v>7</v>
+      </c>
+      <c r="AZ138">
+        <v>2.5</v>
+      </c>
+      <c r="BA138">
         <v>1.2</v>
       </c>
-      <c r="AD138">
-        <v>7.12</v>
-      </c>
-      <c r="AE138">
-        <v>16.09</v>
-      </c>
-      <c r="AF138">
-        <v>1.03</v>
-      </c>
-      <c r="AG138">
-        <v>18.25</v>
-      </c>
-      <c r="AH138">
-        <v>1.2</v>
-      </c>
-      <c r="AI138">
-        <v>4.58</v>
-      </c>
-      <c r="AJ138">
-        <v>1.57</v>
-      </c>
-      <c r="AK138">
-        <v>2.25</v>
-      </c>
-      <c r="AL138">
-        <v>2.25</v>
-      </c>
-      <c r="AM138">
-        <v>1.62</v>
-      </c>
-      <c r="AN138">
-        <v>1.06</v>
-      </c>
-      <c r="AO138">
-        <v>1.13</v>
-      </c>
-      <c r="AP138">
-        <v>4</v>
-      </c>
-      <c r="AQ138">
-        <v>1.86</v>
-      </c>
-      <c r="AR138">
-        <v>2.14</v>
-      </c>
-      <c r="AS138">
-        <v>2</v>
-      </c>
-      <c r="AT138">
-        <v>1.5</v>
-      </c>
-      <c r="AU138">
-        <v>1.29</v>
-      </c>
-      <c r="AV138">
-        <v>1.22</v>
-      </c>
-      <c r="AW138">
-        <v>2.51</v>
-      </c>
-      <c r="AX138">
-        <v>1.11</v>
-      </c>
-      <c r="AY138">
-        <v>11</v>
-      </c>
-      <c r="AZ138">
-        <v>9</v>
-      </c>
-      <c r="BA138">
-        <v>1.06</v>
-      </c>
       <c r="BB138">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="BC138">
         <v>1.7</v>
       </c>
       <c r="BD138">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="BE138">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="BF138">
         <v>4</v>
       </c>
       <c r="BG138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH138">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ138">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK138">
         <v>7</v>
@@ -28295,7 +28298,7 @@
         <v>2</v>
       </c>
       <c r="AS142">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT142">
         <v>1.75</v>
@@ -28566,7 +28569,7 @@
         <v>91</v>
       </c>
       <c r="H144" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -29136,7 +29139,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H147" t="s">
         <v>98</v>
@@ -29250,10 +29253,10 @@
         <v>2.13</v>
       </c>
       <c r="AS147">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT147">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU147">
         <v>1.88</v>
@@ -29327,7 +29330,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H148" t="s">
         <v>91</v>
@@ -29503,7 +29506,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7160792</v>
+        <v>7158632</v>
       </c>
       <c r="C149" t="s">
         <v>63</v>
@@ -29518,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H149" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -29548,145 +29551,145 @@
         <v>117</v>
       </c>
       <c r="Q149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S149">
         <v>8</v>
       </c>
       <c r="T149">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="U149">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="V149">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="W149">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="X149">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Y149">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Z149">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="AA149">
-        <v>10.5</v>
+        <v>5.75</v>
       </c>
       <c r="AB149">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AC149">
-        <v>2.5</v>
+        <v>1.17</v>
       </c>
       <c r="AD149">
-        <v>2.97</v>
+        <v>5.9</v>
       </c>
       <c r="AE149">
-        <v>2.65</v>
+        <v>11</v>
       </c>
       <c r="AF149">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AG149">
-        <v>6.83</v>
+        <v>12</v>
       </c>
       <c r="AH149">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AI149">
+        <v>3.9</v>
+      </c>
+      <c r="AJ149">
+        <v>1.71</v>
+      </c>
+      <c r="AK149">
+        <v>2.09</v>
+      </c>
+      <c r="AL149">
+        <v>2.45</v>
+      </c>
+      <c r="AM149">
+        <v>1.47</v>
+      </c>
+      <c r="AN149">
+        <v>1.03</v>
+      </c>
+      <c r="AO149">
+        <v>1.12</v>
+      </c>
+      <c r="AP149">
+        <v>4.2</v>
+      </c>
+      <c r="AQ149">
+        <v>2.44</v>
+      </c>
+      <c r="AR149">
+        <v>1.33</v>
+      </c>
+      <c r="AS149">
+        <v>2.3</v>
+      </c>
+      <c r="AT149">
+        <v>1.3</v>
+      </c>
+      <c r="AU149">
         <v>2.22</v>
       </c>
-      <c r="AJ149">
-        <v>2.38</v>
-      </c>
-      <c r="AK149">
-        <v>1.55</v>
-      </c>
-      <c r="AL149">
-        <v>2.1</v>
-      </c>
-      <c r="AM149">
-        <v>1.63</v>
-      </c>
-      <c r="AN149">
-        <v>1.42</v>
-      </c>
-      <c r="AO149">
-        <v>1.37</v>
-      </c>
-      <c r="AP149">
-        <v>1.44</v>
-      </c>
-      <c r="AQ149">
-        <v>1.89</v>
-      </c>
-      <c r="AR149">
-        <v>1.78</v>
-      </c>
-      <c r="AS149">
-        <v>1.8</v>
-      </c>
-      <c r="AT149">
-        <v>1.7</v>
-      </c>
-      <c r="AU149">
-        <v>1.64</v>
-      </c>
       <c r="AV149">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AW149">
-        <v>2.82</v>
+        <v>3.28</v>
       </c>
       <c r="AX149">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="AY149">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AZ149">
-        <v>2.28</v>
+        <v>6.75</v>
       </c>
       <c r="BA149">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="BB149">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="BC149">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="BD149">
-        <v>2.95</v>
+        <v>2.32</v>
       </c>
       <c r="BE149">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="BF149">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BG149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH149">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK149">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:63">
@@ -29694,7 +29697,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7158632</v>
+        <v>7160792</v>
       </c>
       <c r="C150" t="s">
         <v>63</v>
@@ -29709,10 +29712,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H150" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -29739,144 +29742,335 @@
         <v>117</v>
       </c>
       <c r="Q150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S150">
         <v>8</v>
       </c>
       <c r="T150">
-        <v>1.67</v>
+        <v>3.6</v>
       </c>
       <c r="U150">
+        <v>1.91</v>
+      </c>
+      <c r="V150">
+        <v>3.6</v>
+      </c>
+      <c r="W150">
+        <v>1.55</v>
+      </c>
+      <c r="X150">
+        <v>2.25</v>
+      </c>
+      <c r="Y150">
+        <v>3.6</v>
+      </c>
+      <c r="Z150">
+        <v>1.25</v>
+      </c>
+      <c r="AA150">
+        <v>10.5</v>
+      </c>
+      <c r="AB150">
+        <v>1.04</v>
+      </c>
+      <c r="AC150">
+        <v>2.5</v>
+      </c>
+      <c r="AD150">
+        <v>2.97</v>
+      </c>
+      <c r="AE150">
+        <v>2.65</v>
+      </c>
+      <c r="AF150">
+        <v>1.09</v>
+      </c>
+      <c r="AG150">
+        <v>6.83</v>
+      </c>
+      <c r="AH150">
+        <v>1.58</v>
+      </c>
+      <c r="AI150">
+        <v>2.22</v>
+      </c>
+      <c r="AJ150">
+        <v>2.38</v>
+      </c>
+      <c r="AK150">
+        <v>1.55</v>
+      </c>
+      <c r="AL150">
+        <v>2.1</v>
+      </c>
+      <c r="AM150">
+        <v>1.63</v>
+      </c>
+      <c r="AN150">
+        <v>1.42</v>
+      </c>
+      <c r="AO150">
+        <v>1.37</v>
+      </c>
+      <c r="AP150">
+        <v>1.44</v>
+      </c>
+      <c r="AQ150">
+        <v>1.89</v>
+      </c>
+      <c r="AR150">
+        <v>1.78</v>
+      </c>
+      <c r="AS150">
+        <v>1.8</v>
+      </c>
+      <c r="AT150">
+        <v>1.7</v>
+      </c>
+      <c r="AU150">
+        <v>1.64</v>
+      </c>
+      <c r="AV150">
+        <v>1.18</v>
+      </c>
+      <c r="AW150">
+        <v>2.82</v>
+      </c>
+      <c r="AX150">
+        <v>1.84</v>
+      </c>
+      <c r="AY150">
+        <v>7.5</v>
+      </c>
+      <c r="AZ150">
+        <v>2.28</v>
+      </c>
+      <c r="BA150">
+        <v>1.43</v>
+      </c>
+      <c r="BB150">
+        <v>1.76</v>
+      </c>
+      <c r="BC150">
+        <v>2.25</v>
+      </c>
+      <c r="BD150">
+        <v>2.95</v>
+      </c>
+      <c r="BE150">
+        <v>4.1</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>2</v>
+      </c>
+      <c r="BH150">
+        <v>9</v>
+      </c>
+      <c r="BI150">
+        <v>2</v>
+      </c>
+      <c r="BJ150">
+        <v>9</v>
+      </c>
+      <c r="BK150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7160791</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45169.89583333334</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>98</v>
+      </c>
+      <c r="H151" t="s">
+        <v>96</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>146</v>
+      </c>
+      <c r="P151" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q151">
+        <v>9</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>3.2</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>3.4</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>2.75</v>
+      </c>
+      <c r="Y151">
+        <v>3</v>
+      </c>
+      <c r="Z151">
+        <v>1.36</v>
+      </c>
+      <c r="AA151">
+        <v>9</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>2.58</v>
+      </c>
+      <c r="AD151">
+        <v>3.4</v>
+      </c>
+      <c r="AE151">
         <v>2.6</v>
       </c>
-      <c r="V150">
-        <v>11</v>
-      </c>
-      <c r="W150">
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>10</v>
+      </c>
+      <c r="AH151">
         <v>1.32</v>
       </c>
-      <c r="X150">
-        <v>3.1</v>
-      </c>
-      <c r="Y150">
-        <v>2.45</v>
-      </c>
-      <c r="Z150">
-        <v>1.49</v>
-      </c>
-      <c r="AA150">
-        <v>5.75</v>
-      </c>
-      <c r="AB150">
-        <v>1.12</v>
-      </c>
-      <c r="AC150">
-        <v>1.17</v>
-      </c>
-      <c r="AD150">
-        <v>5.9</v>
-      </c>
-      <c r="AE150">
-        <v>11</v>
-      </c>
-      <c r="AF150">
-        <v>1.03</v>
-      </c>
-      <c r="AG150">
-        <v>12</v>
-      </c>
-      <c r="AH150">
-        <v>1.22</v>
-      </c>
-      <c r="AI150">
-        <v>3.9</v>
-      </c>
-      <c r="AJ150">
-        <v>1.71</v>
-      </c>
-      <c r="AK150">
-        <v>2.09</v>
-      </c>
-      <c r="AL150">
-        <v>2.45</v>
-      </c>
-      <c r="AM150">
-        <v>1.47</v>
-      </c>
-      <c r="AN150">
-        <v>1.03</v>
-      </c>
-      <c r="AO150">
-        <v>1.12</v>
-      </c>
-      <c r="AP150">
-        <v>4.2</v>
-      </c>
-      <c r="AQ150">
-        <v>2.44</v>
-      </c>
-      <c r="AR150">
-        <v>1.33</v>
-      </c>
-      <c r="AS150">
-        <v>2.3</v>
-      </c>
-      <c r="AT150">
-        <v>1.3</v>
-      </c>
-      <c r="AU150">
-        <v>2.22</v>
-      </c>
-      <c r="AV150">
-        <v>1.06</v>
-      </c>
-      <c r="AW150">
-        <v>3.28</v>
-      </c>
-      <c r="AX150">
-        <v>1.19</v>
-      </c>
-      <c r="AY150">
-        <v>12</v>
-      </c>
-      <c r="AZ150">
-        <v>6.75</v>
-      </c>
-      <c r="BA150">
-        <v>1.27</v>
-      </c>
-      <c r="BB150">
+      <c r="AI151">
+        <v>3.26</v>
+      </c>
+      <c r="AJ151">
+        <v>1.95</v>
+      </c>
+      <c r="AK151">
+        <v>1.81</v>
+      </c>
+      <c r="AL151">
+        <v>1.8</v>
+      </c>
+      <c r="AM151">
+        <v>1.95</v>
+      </c>
+      <c r="AN151">
+        <v>1.43</v>
+      </c>
+      <c r="AO151">
+        <v>1.31</v>
+      </c>
+      <c r="AP151">
         <v>1.5</v>
       </c>
-      <c r="BC150">
-        <v>1.85</v>
-      </c>
-      <c r="BD150">
-        <v>2.32</v>
-      </c>
-      <c r="BE150">
-        <v>3</v>
-      </c>
-      <c r="BF150">
+      <c r="AQ151">
+        <v>1.89</v>
+      </c>
+      <c r="AR151">
+        <v>1.89</v>
+      </c>
+      <c r="AS151">
+        <v>1.7</v>
+      </c>
+      <c r="AT151">
+        <v>2</v>
+      </c>
+      <c r="AU151">
+        <v>1.56</v>
+      </c>
+      <c r="AV151">
+        <v>1.29</v>
+      </c>
+      <c r="AW151">
+        <v>2.85</v>
+      </c>
+      <c r="AX151">
+        <v>1.92</v>
+      </c>
+      <c r="AY151">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151">
+        <v>2.16</v>
+      </c>
+      <c r="BA151">
+        <v>1.32</v>
+      </c>
+      <c r="BB151">
+        <v>1.6</v>
+      </c>
+      <c r="BC151">
+        <v>2</v>
+      </c>
+      <c r="BD151">
+        <v>2.55</v>
+      </c>
+      <c r="BE151">
+        <v>3.4</v>
+      </c>
+      <c r="BF151">
+        <v>6</v>
+      </c>
+      <c r="BG151">
+        <v>5</v>
+      </c>
+      <c r="BH151">
         <v>8</v>
       </c>
-      <c r="BG150">
-        <v>4</v>
-      </c>
-      <c r="BH150">
-        <v>5</v>
-      </c>
-      <c r="BI150">
-        <v>4</v>
-      </c>
-      <c r="BJ150">
-        <v>13</v>
-      </c>
-      <c r="BK150">
+      <c r="BI151">
+        <v>3</v>
+      </c>
+      <c r="BJ151">
+        <v>14</v>
+      </c>
+      <c r="BK151">
         <v>8</v>
       </c>
     </row>
